--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2017215.733475015</v>
+        <v>2016537.552167482</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311885.1970183202</v>
+        <v>311885.19701832</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.451805855</v>
+        <v>632041.4518058546</v>
       </c>
     </row>
     <row r="9">
@@ -1373,13 +1373,13 @@
         <v>122.7111663740566</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>19.083495583673</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="G11" t="n">
         <v>122.7111663740566</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.030286966852145e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.0623814045186</v>
+        <v>33.0623814045185</v>
       </c>
       <c r="T11" t="n">
-        <v>28.20762267428248</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>55.93811835407756</v>
+        <v>55.93811835407746</v>
       </c>
       <c r="V11" t="n">
-        <v>113.5870392834467</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>111.347397856272</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>89.06762571564819</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>20.73635203332423</v>
+      </c>
+      <c r="U12" t="n">
         <v>122.7111663740566</v>
       </c>
-      <c r="U12" t="n">
-        <v>43.01612417394771</v>
-      </c>
       <c r="V12" t="n">
-        <v>46.43735102801264</v>
+        <v>46.43735102801253</v>
       </c>
       <c r="W12" t="n">
         <v>122.7111663740566</v>
       </c>
       <c r="X12" t="n">
-        <v>23.101344552081</v>
+        <v>23.10134455208089</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.17271624663601</v>
+        <v>29.1727162466359</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.003274493278884</v>
+        <v>9.003274493278772</v>
       </c>
       <c r="S13" t="n">
-        <v>41.14309824393267</v>
+        <v>41.14309824393256</v>
       </c>
       <c r="T13" t="n">
-        <v>29.52954681521124</v>
+        <v>29.52954681521112</v>
       </c>
       <c r="U13" t="n">
-        <v>94.44472612269445</v>
+        <v>94.44472612269433</v>
       </c>
       <c r="V13" t="n">
-        <v>50.8974452970603</v>
+        <v>50.89744529706019</v>
       </c>
       <c r="W13" t="n">
-        <v>96.09913720194572</v>
+        <v>96.09913720194561</v>
       </c>
       <c r="X13" t="n">
-        <v>27.70788552085293</v>
+        <v>27.70788552085281</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.92970292677882</v>
+        <v>22.9297029267787</v>
       </c>
     </row>
     <row r="14">
@@ -1604,76 +1604,76 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>33.06238140451843</v>
+      </c>
+      <c r="T14" t="n">
+        <v>28.20762267428231</v>
+      </c>
+      <c r="U14" t="n">
+        <v>55.9381183540774</v>
+      </c>
+      <c r="V14" t="n">
         <v>122.7111663740566</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>75.02161393775054</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="W14" t="n">
         <v>122.7111663740566</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>33.0623814045185</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
       <c r="X14" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>113.5870392834474</v>
       </c>
     </row>
     <row r="15">
@@ -1698,61 +1698,61 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>25.01097623933872</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>122.7111663740566</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
       <c r="S15" t="n">
-        <v>118.5494263667591</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.73635203332423</v>
+        <v>20.73635203332417</v>
       </c>
       <c r="U15" t="n">
-        <v>43.0161241739476</v>
+        <v>43.01612417394754</v>
       </c>
       <c r="V15" t="n">
-        <v>46.43735102801253</v>
+        <v>46.43735102801247</v>
       </c>
       <c r="W15" t="n">
-        <v>72.49301368962188</v>
+        <v>72.49301368962182</v>
       </c>
       <c r="X15" t="n">
-        <v>23.10134455208089</v>
+        <v>23.10134455208083</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.1727162466359</v>
+        <v>122.7111663740566</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.003274493278774</v>
+        <v>9.003274493278713</v>
       </c>
       <c r="S16" t="n">
-        <v>41.14309824393256</v>
+        <v>41.1430982439325</v>
       </c>
       <c r="T16" t="n">
-        <v>29.52954681521112</v>
+        <v>29.52954681521107</v>
       </c>
       <c r="U16" t="n">
-        <v>94.44472612269433</v>
+        <v>94.44472612269428</v>
       </c>
       <c r="V16" t="n">
-        <v>50.89744529706019</v>
+        <v>50.89744529706013</v>
       </c>
       <c r="W16" t="n">
-        <v>96.09913720194561</v>
+        <v>96.09913720194555</v>
       </c>
       <c r="X16" t="n">
-        <v>27.70788552085281</v>
+        <v>27.70788552085276</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.9297029267787</v>
+        <v>22.92970292677865</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>17.12581689363446</v>
       </c>
       <c r="E17" t="n">
-        <v>50.83256931304334</v>
+        <v>50.832569313043</v>
       </c>
       <c r="F17" t="n">
         <v>82.55290689142066</v>
@@ -1859,7 +1859,7 @@
         <v>98.1811645742734</v>
       </c>
       <c r="H17" t="n">
-        <v>26.26582637653689</v>
+        <v>26.26582637653692</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,76 +1920,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>108.083995342269</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>6.141010788491304</v>
+      </c>
+      <c r="R18" t="n">
         <v>122.7111663740566</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>101.9429845537777</v>
+      </c>
+      <c r="Y18" t="n">
         <v>122.7111663740566</v>
-      </c>
-      <c r="V18" t="n">
-        <v>122.7111663740566</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2084,7 +2084,7 @@
         <v>29.559154632586</v>
       </c>
       <c r="D20" t="n">
-        <v>17.12581689363443</v>
+        <v>17.12581689363446</v>
       </c>
       <c r="E20" t="n">
         <v>50.83256931304334</v>
@@ -2160,64 +2160,64 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>101.9429845537777</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6.141010788491304</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>122.7111663740566</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>108.083995342269</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>122.7111663740566</v>
@@ -2409,61 +2409,61 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
         <v>122.7111663740566</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>108.083995342269</v>
+      </c>
+      <c r="U24" t="n">
         <v>122.7111663740566</v>
       </c>
-      <c r="U24" t="n">
-        <v>108.083995342269</v>
-      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>122.7111663740566</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2555,25 +2555,25 @@
         <v>161.1666563115506</v>
       </c>
       <c r="C26" t="n">
-        <v>137.284913314896</v>
+        <v>137.2849133148961</v>
       </c>
       <c r="D26" t="n">
-        <v>124.8515755759445</v>
+        <v>124.8515755759446</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5583279953534</v>
+        <v>158.5583279953535</v>
       </c>
       <c r="F26" t="n">
-        <v>190.2786655737307</v>
+        <v>190.2786655737308</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9069232565834</v>
+        <v>205.9069232565835</v>
       </c>
       <c r="H26" t="n">
-        <v>133.991585058847</v>
+        <v>133.9915850588471</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67799807148478</v>
+        <v>27.67799807148486</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35336722562544</v>
+        <v>14.35336722562552</v>
       </c>
       <c r="T26" t="n">
-        <v>9.498608495389307</v>
+        <v>9.498608495389393</v>
       </c>
       <c r="U26" t="n">
-        <v>37.2291041751844</v>
+        <v>37.22910417518449</v>
       </c>
       <c r="V26" t="n">
-        <v>107.9591995428692</v>
+        <v>107.9591995428693</v>
       </c>
       <c r="W26" t="n">
-        <v>124.9758797594841</v>
+        <v>124.9758797594842</v>
       </c>
       <c r="X26" t="n">
         <v>146.8621302284234</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.3649833521671</v>
+        <v>169.3649833521672</v>
       </c>
     </row>
     <row r="27">
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>36.64846128744409</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.02733785443117</v>
+        <v>2.027337854431256</v>
       </c>
       <c r="U27" t="n">
-        <v>24.30710999505454</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>236.2043699763629</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.392330373187832</v>
+        <v>4.392330373187917</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46370206774284</v>
+        <v>10.46370206774293</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.4340840650395</v>
+        <v>22.43408406503958</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82053263631807</v>
+        <v>10.82053263631815</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73571194380128</v>
+        <v>75.73571194380136</v>
       </c>
       <c r="V28" t="n">
-        <v>32.18843111816713</v>
+        <v>32.18843111816722</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39012302305255</v>
+        <v>77.39012302305264</v>
       </c>
       <c r="X28" t="n">
-        <v>8.998871341959756</v>
+        <v>8.998871341959841</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.220688747885646</v>
+        <v>4.220688747885731</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>137.2849133148962</v>
       </c>
       <c r="D29" t="n">
-        <v>124.8515755759446</v>
+        <v>124.8515755759447</v>
       </c>
       <c r="E29" t="n">
         <v>158.5583279953535</v>
@@ -2810,7 +2810,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I29" t="n">
-        <v>27.6779980714849</v>
+        <v>27.67799807148493</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35336722562555</v>
+        <v>14.35336722562558</v>
       </c>
       <c r="T29" t="n">
-        <v>9.498608495389421</v>
+        <v>9.498608495389449</v>
       </c>
       <c r="U29" t="n">
-        <v>37.22910417518452</v>
+        <v>37.22910417518455</v>
       </c>
       <c r="V29" t="n">
         <v>107.9591995428694</v>
       </c>
       <c r="W29" t="n">
-        <v>124.9758797594842</v>
+        <v>124.9758797594843</v>
       </c>
       <c r="X29" t="n">
         <v>146.8621302284235</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.3649833521672</v>
+        <v>169.3649833521673</v>
       </c>
     </row>
     <row r="30">
@@ -2877,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>49.652594007315</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.93601990319851</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,19 +2922,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.027337854431284</v>
+        <v>2.027337854431313</v>
       </c>
       <c r="U30" t="n">
-        <v>24.30710999505465</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V30" t="n">
-        <v>27.72833684911959</v>
+        <v>27.72833684911961</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78399951072896</v>
       </c>
       <c r="X30" t="n">
-        <v>4.392330373187946</v>
+        <v>154.7913328087415</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43408406503961</v>
+        <v>22.43408406503964</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82053263631818</v>
+        <v>10.82053263631821</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73571194380139</v>
+        <v>75.73571194380142</v>
       </c>
       <c r="V31" t="n">
-        <v>32.18843111816724</v>
+        <v>32.18843111816727</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39012302305267</v>
+        <v>77.39012302305269</v>
       </c>
       <c r="X31" t="n">
-        <v>8.99887134195987</v>
+        <v>8.998871341959898</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.22068874788576</v>
+        <v>4.220688747885788</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.1666563115506</v>
+        <v>161.1666563115507</v>
       </c>
       <c r="C32" t="n">
-        <v>137.2849133148961</v>
+        <v>137.2849133148962</v>
       </c>
       <c r="D32" t="n">
-        <v>124.8515755759446</v>
+        <v>124.8515755759447</v>
       </c>
       <c r="E32" t="n">
-        <v>158.5583279953534</v>
+        <v>158.5583279953535</v>
       </c>
       <c r="F32" t="n">
         <v>190.2786655737308</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9069232565835</v>
+        <v>205.9069232565836</v>
       </c>
       <c r="H32" t="n">
-        <v>133.991585058847</v>
+        <v>133.9915850588471</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67799807148484</v>
+        <v>27.67799807148492</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.3533672256255</v>
+        <v>14.35336722562559</v>
       </c>
       <c r="T32" t="n">
-        <v>9.498608495389362</v>
+        <v>9.498608495389448</v>
       </c>
       <c r="U32" t="n">
-        <v>37.22910417518446</v>
+        <v>37.22910417518455</v>
       </c>
       <c r="V32" t="n">
-        <v>107.9591995428693</v>
+        <v>107.9591995428694</v>
       </c>
       <c r="W32" t="n">
-        <v>124.9758797594842</v>
+        <v>124.9758797594843</v>
       </c>
       <c r="X32" t="n">
-        <v>146.8621302284234</v>
+        <v>146.8621302284235</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.3649833521672</v>
+        <v>169.3649833521673</v>
       </c>
     </row>
     <row r="33">
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>214.947921920714</v>
       </c>
       <c r="U33" t="n">
-        <v>24.3071099950546</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>70.89104411129293</v>
       </c>
       <c r="W33" t="n">
-        <v>53.78399951072888</v>
+        <v>53.78399951072896</v>
       </c>
       <c r="X33" t="n">
-        <v>4.392330373187889</v>
+        <v>4.392330373187974</v>
       </c>
       <c r="Y33" t="n">
-        <v>93.25932454814308</v>
+        <v>10.46370206774299</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43408406503956</v>
+        <v>22.43408406503964</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82053263631813</v>
+        <v>10.82053263631821</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73571194380133</v>
+        <v>75.73571194380142</v>
       </c>
       <c r="V34" t="n">
-        <v>32.18843111816719</v>
+        <v>32.18843111816727</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39012302305261</v>
+        <v>77.39012302305269</v>
       </c>
       <c r="X34" t="n">
-        <v>8.998871341959813</v>
+        <v>8.998871341959898</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.220688747885703</v>
+        <v>4.220688747885788</v>
       </c>
     </row>
     <row r="35">
@@ -3269,10 +3269,10 @@
         <v>101.8942865922345</v>
       </c>
       <c r="D35" t="n">
-        <v>89.46094885328296</v>
+        <v>89.46094885328299</v>
       </c>
       <c r="E35" t="n">
-        <v>123.1677012726918</v>
+        <v>123.1677012726919</v>
       </c>
       <c r="F35" t="n">
         <v>154.8880388510692</v>
@@ -3281,7 +3281,7 @@
         <v>170.5162965339219</v>
       </c>
       <c r="H35" t="n">
-        <v>98.60095833618539</v>
+        <v>98.60095833618541</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.838477452522838</v>
+        <v>1.838477452522867</v>
       </c>
       <c r="V35" t="n">
-        <v>72.56857282020769</v>
+        <v>72.56857282020772</v>
       </c>
       <c r="W35" t="n">
-        <v>89.58525303682256</v>
+        <v>89.58525303682259</v>
       </c>
       <c r="X35" t="n">
         <v>111.4715035057618</v>
@@ -3387,16 +3387,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>39.66109743606186</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U36" t="n">
         <v>237.2276940613373</v>
@@ -3405,13 +3405,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>55.75911679930874</v>
+        <v>18.3933727880673</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.34508522113972</v>
+        <v>40.34508522113975</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>41.999496300391</v>
+        <v>41.99949630039103</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,10 +3506,10 @@
         <v>101.8942865922345</v>
       </c>
       <c r="D38" t="n">
-        <v>89.46094885328296</v>
+        <v>89.46094885328299</v>
       </c>
       <c r="E38" t="n">
-        <v>123.1677012726918</v>
+        <v>123.1677012726919</v>
       </c>
       <c r="F38" t="n">
         <v>154.8880388510692</v>
@@ -3518,7 +3518,7 @@
         <v>170.5162965339219</v>
       </c>
       <c r="H38" t="n">
-        <v>98.60095833618539</v>
+        <v>98.60095833618541</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.838477452522838</v>
+        <v>1.838477452522867</v>
       </c>
       <c r="V38" t="n">
-        <v>72.56857282020769</v>
+        <v>72.56857282020772</v>
       </c>
       <c r="W38" t="n">
-        <v>89.58525303682256</v>
+        <v>89.58525303682259</v>
       </c>
       <c r="X38" t="n">
         <v>111.4715035057618</v>
@@ -3585,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>69.13811470048473</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>25.4190329516744</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>18.39337278806727</v>
+        <v>18.3933727880673</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.34508522113972</v>
+        <v>40.34508522113975</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>41.999496300391</v>
+        <v>41.99949630039103</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>133.4886582400657</v>
+        <v>133.4886582400658</v>
       </c>
       <c r="C41" t="n">
-        <v>109.6069152434112</v>
+        <v>109.6069152434113</v>
       </c>
       <c r="D41" t="n">
-        <v>97.17357750445967</v>
+        <v>97.17357750445973</v>
       </c>
       <c r="E41" t="n">
-        <v>130.8803299238685</v>
+        <v>130.8803299238686</v>
       </c>
       <c r="F41" t="n">
         <v>162.6006675022459</v>
       </c>
       <c r="G41" t="n">
-        <v>178.2289251850986</v>
+        <v>178.2289251850987</v>
       </c>
       <c r="H41" t="n">
-        <v>106.3135869873621</v>
+        <v>106.3135869873622</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.551106103699553</v>
+        <v>9.55110610369961</v>
       </c>
       <c r="V41" t="n">
-        <v>80.28120147138441</v>
+        <v>80.28120147138446</v>
       </c>
       <c r="W41" t="n">
-        <v>97.29788168799928</v>
+        <v>97.29788168799934</v>
       </c>
       <c r="X41" t="n">
-        <v>119.1841321569385</v>
+        <v>119.1841321569386</v>
       </c>
       <c r="Y41" t="n">
         <v>141.6869852806823</v>
@@ -3822,22 +3822,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>113.7798660393785</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>73.98792905350889</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.05033877763463579</v>
+        <v>0.05033877763469263</v>
       </c>
       <c r="W42" t="n">
-        <v>26.10600143924398</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.05771387231643</v>
+        <v>48.05771387231649</v>
       </c>
       <c r="V43" t="n">
-        <v>4.510433046682294</v>
+        <v>4.510433046682351</v>
       </c>
       <c r="W43" t="n">
-        <v>49.71212495156772</v>
+        <v>49.71212495156777</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>133.4886582400657</v>
+        <v>133.4886582400658</v>
       </c>
       <c r="C44" t="n">
-        <v>109.6069152434112</v>
+        <v>109.6069152434113</v>
       </c>
       <c r="D44" t="n">
-        <v>97.1735775044597</v>
+        <v>97.17357750445973</v>
       </c>
       <c r="E44" t="n">
-        <v>130.8803299238681</v>
+        <v>130.8803299238686</v>
       </c>
       <c r="F44" t="n">
         <v>162.6006675022459</v>
       </c>
       <c r="G44" t="n">
-        <v>178.2289251850986</v>
+        <v>178.2289251850987</v>
       </c>
       <c r="H44" t="n">
-        <v>106.3135869873621</v>
+        <v>106.3135869873622</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.551106103699581</v>
+        <v>9.55110610369961</v>
       </c>
       <c r="V44" t="n">
-        <v>80.28120147138443</v>
+        <v>80.28120147138446</v>
       </c>
       <c r="W44" t="n">
-        <v>97.29788168799931</v>
+        <v>97.29788168799934</v>
       </c>
       <c r="X44" t="n">
-        <v>119.1841321569385</v>
+        <v>119.1841321569386</v>
       </c>
       <c r="Y44" t="n">
         <v>141.6869852806823</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>107.1180479836569</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93601990319851</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4847933493539</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05033877763466421</v>
+        <v>0.05033877763469263</v>
       </c>
       <c r="W45" t="n">
-        <v>26.10600143924401</v>
+        <v>26.10600143924404</v>
       </c>
       <c r="X45" t="n">
-        <v>59.49223847470545</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.05771387231646</v>
+        <v>48.05771387231649</v>
       </c>
       <c r="V46" t="n">
-        <v>4.510433046682323</v>
+        <v>4.510433046682351</v>
       </c>
       <c r="W46" t="n">
-        <v>49.71212495156774</v>
+        <v>49.71212495156777</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>400.9451707905738</v>
+      </c>
+      <c r="C11" t="n">
+        <v>276.9944976854661</v>
+      </c>
+      <c r="D11" t="n">
         <v>257.7182395201398</v>
       </c>
-      <c r="C11" t="n">
-        <v>133.7675664150322</v>
-      </c>
-      <c r="D11" t="n">
-        <v>133.7675664150322</v>
-      </c>
       <c r="E11" t="n">
-        <v>133.7675664150322</v>
+        <v>257.7182395201398</v>
       </c>
       <c r="F11" t="n">
         <v>133.7675664150322</v>
@@ -5039,22 +5039,22 @@
         <v>9.816893309924525</v>
       </c>
       <c r="J11" t="n">
-        <v>126.9687252395234</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K11" t="n">
-        <v>161.0455584180864</v>
+        <v>131.3009480202405</v>
       </c>
       <c r="L11" t="n">
-        <v>209.4326876692979</v>
+        <v>252.7850027305565</v>
       </c>
       <c r="M11" t="n">
-        <v>292.1486518474609</v>
+        <v>335.5009669087195</v>
       </c>
       <c r="N11" t="n">
-        <v>369.3606107859102</v>
+        <v>412.7129258471688</v>
       </c>
       <c r="O11" t="n">
-        <v>490.8446654962262</v>
+        <v>448.7126304515638</v>
       </c>
       <c r="P11" t="n">
         <v>490.8446654962262</v>
@@ -5063,28 +5063,28 @@
         <v>490.8446654962262</v>
       </c>
       <c r="R11" t="n">
-        <v>490.8446654962261</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="S11" t="n">
-        <v>457.4483206431769</v>
+        <v>457.4483206431773</v>
       </c>
       <c r="T11" t="n">
-        <v>428.955772487336</v>
+        <v>457.4483206431773</v>
       </c>
       <c r="U11" t="n">
-        <v>372.4526226347326</v>
+        <v>400.9451707905738</v>
       </c>
       <c r="V11" t="n">
-        <v>257.7182395201398</v>
+        <v>400.9451707905738</v>
       </c>
       <c r="W11" t="n">
-        <v>257.7182395201398</v>
+        <v>400.9451707905738</v>
       </c>
       <c r="X11" t="n">
-        <v>257.7182395201398</v>
+        <v>400.9451707905738</v>
       </c>
       <c r="Y11" t="n">
-        <v>257.7182395201398</v>
+        <v>400.9451707905738</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>9.816893309924525</v>
       </c>
       <c r="K12" t="n">
-        <v>48.6924984314918</v>
+        <v>48.69249843149179</v>
       </c>
       <c r="L12" t="n">
-        <v>48.6924984314918</v>
+        <v>167.2520893996961</v>
       </c>
       <c r="M12" t="n">
-        <v>170.1765531418078</v>
+        <v>167.2520893996961</v>
       </c>
       <c r="N12" t="n">
-        <v>291.6606078521238</v>
+        <v>284.6566804676643</v>
       </c>
       <c r="O12" t="n">
-        <v>413.1446625624398</v>
+        <v>406.1407351779803</v>
       </c>
       <c r="P12" t="n">
         <v>490.8446654962262</v>
@@ -5145,25 +5145,25 @@
         <v>490.8446654962262</v>
       </c>
       <c r="S12" t="n">
-        <v>400.8773667935513</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="T12" t="n">
-        <v>276.9266936884437</v>
+        <v>469.8988553615553</v>
       </c>
       <c r="U12" t="n">
-        <v>233.4760632097086</v>
+        <v>345.9481822564477</v>
       </c>
       <c r="V12" t="n">
-        <v>186.5696480298978</v>
+        <v>299.041767076637</v>
       </c>
       <c r="W12" t="n">
-        <v>62.6189749247902</v>
+        <v>175.0910939715294</v>
       </c>
       <c r="X12" t="n">
-        <v>39.28428345804171</v>
+        <v>151.756402504781</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.816893309924525</v>
+        <v>122.2890123566639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.24559604012182</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C13" t="n">
-        <v>53.7224410663849</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D13" t="n">
-        <v>102.261071506697</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E13" t="n">
-        <v>102.261071506697</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F13" t="n">
-        <v>156.9929122989505</v>
+        <v>64.54873410217816</v>
       </c>
       <c r="G13" t="n">
-        <v>182.2533357060256</v>
+        <v>64.54873410217816</v>
       </c>
       <c r="H13" t="n">
-        <v>182.2533357060256</v>
+        <v>64.54873410217816</v>
       </c>
       <c r="I13" t="n">
-        <v>182.2533357060256</v>
+        <v>64.54873410217816</v>
       </c>
       <c r="J13" t="n">
-        <v>182.2533357060256</v>
+        <v>64.54873410217816</v>
       </c>
       <c r="K13" t="n">
-        <v>182.2533357060256</v>
+        <v>64.54873410217816</v>
       </c>
       <c r="L13" t="n">
-        <v>182.2533357060256</v>
+        <v>186.0327888124941</v>
       </c>
       <c r="M13" t="n">
-        <v>263.842754379159</v>
+        <v>307.5168435228101</v>
       </c>
       <c r="N13" t="n">
-        <v>263.842754379159</v>
+        <v>307.5168435228101</v>
       </c>
       <c r="O13" t="n">
-        <v>263.842754379159</v>
+        <v>385.3268090894741</v>
       </c>
       <c r="P13" t="n">
-        <v>385.326809089475</v>
+        <v>385.3268090894741</v>
       </c>
       <c r="Q13" t="n">
-        <v>385.326809089475</v>
+        <v>385.3268090894741</v>
       </c>
       <c r="R13" t="n">
-        <v>376.2325924295974</v>
+        <v>376.2325924295966</v>
       </c>
       <c r="S13" t="n">
-        <v>334.6739073347159</v>
+        <v>334.6739073347152</v>
       </c>
       <c r="T13" t="n">
-        <v>304.846082268846</v>
+        <v>304.8460822688454</v>
       </c>
       <c r="U13" t="n">
-        <v>209.447369013599</v>
+        <v>209.4473690135986</v>
       </c>
       <c r="V13" t="n">
-        <v>158.0358081074775</v>
+        <v>158.0358081074772</v>
       </c>
       <c r="W13" t="n">
-        <v>60.96597254995659</v>
+        <v>60.96597254995636</v>
       </c>
       <c r="X13" t="n">
-        <v>32.9782093975799</v>
+        <v>32.97820939757978</v>
       </c>
       <c r="Y13" t="n">
         <v>9.816893309924525</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>209.546974432962</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C14" t="n">
-        <v>209.546974432962</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D14" t="n">
-        <v>209.546974432962</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E14" t="n">
-        <v>133.7675664150322</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F14" t="n">
-        <v>133.7675664150322</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G14" t="n">
-        <v>133.7675664150322</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H14" t="n">
         <v>9.816893309924525</v>
@@ -5276,25 +5276,25 @@
         <v>9.816893309924525</v>
       </c>
       <c r="J14" t="n">
-        <v>12.17837670778748</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K14" t="n">
-        <v>12.17837670778748</v>
+        <v>125.0458538136914</v>
       </c>
       <c r="L14" t="n">
-        <v>60.56550595899897</v>
+        <v>173.4329830649029</v>
       </c>
       <c r="M14" t="n">
-        <v>143.2814701371619</v>
+        <v>256.1489472430659</v>
       </c>
       <c r="N14" t="n">
-        <v>264.7655248474779</v>
+        <v>333.3609061815152</v>
       </c>
       <c r="O14" t="n">
-        <v>386.2495795577939</v>
+        <v>369.3606107859102</v>
       </c>
       <c r="P14" t="n">
-        <v>386.2495795577939</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="Q14" t="n">
         <v>490.8446654962262</v>
@@ -5306,22 +5306,22 @@
         <v>457.4483206431773</v>
       </c>
       <c r="T14" t="n">
-        <v>457.4483206431773</v>
+        <v>428.9557724873366</v>
       </c>
       <c r="U14" t="n">
-        <v>457.4483206431773</v>
+        <v>372.4526226347331</v>
       </c>
       <c r="V14" t="n">
-        <v>457.4483206431773</v>
+        <v>248.5019495296255</v>
       </c>
       <c r="W14" t="n">
-        <v>457.4483206431773</v>
+        <v>124.5512764245179</v>
       </c>
       <c r="X14" t="n">
-        <v>333.4976475380697</v>
+        <v>124.5512764245179</v>
       </c>
       <c r="Y14" t="n">
-        <v>333.4976475380697</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>133.7675664150322</v>
+        <v>35.08050567289293</v>
       </c>
       <c r="C15" t="n">
-        <v>133.7675664150322</v>
+        <v>35.08050567289293</v>
       </c>
       <c r="D15" t="n">
-        <v>133.7675664150322</v>
+        <v>35.08050567289293</v>
       </c>
       <c r="E15" t="n">
-        <v>133.7675664150322</v>
+        <v>35.08050567289293</v>
       </c>
       <c r="F15" t="n">
-        <v>133.7675664150322</v>
+        <v>35.08050567289293</v>
       </c>
       <c r="G15" t="n">
-        <v>133.7675664150322</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H15" t="n">
         <v>9.816893309924525</v>
@@ -5358,16 +5358,16 @@
         <v>9.816893309924525</v>
       </c>
       <c r="K15" t="n">
-        <v>48.69249843149179</v>
+        <v>48.6924984314918</v>
       </c>
       <c r="L15" t="n">
-        <v>167.2520893996961</v>
+        <v>167.2520893996962</v>
       </c>
       <c r="M15" t="n">
-        <v>288.7361441100121</v>
+        <v>288.7361441100122</v>
       </c>
       <c r="N15" t="n">
-        <v>410.2201988203281</v>
+        <v>369.3606107859102</v>
       </c>
       <c r="O15" t="n">
         <v>490.8446654962262</v>
@@ -5379,28 +5379,28 @@
         <v>490.8446654962262</v>
       </c>
       <c r="R15" t="n">
-        <v>490.8446654962262</v>
+        <v>366.8939923911186</v>
       </c>
       <c r="S15" t="n">
-        <v>371.0977701762676</v>
+        <v>366.8939923911186</v>
       </c>
       <c r="T15" t="n">
-        <v>350.1519600415967</v>
+        <v>345.9481822564478</v>
       </c>
       <c r="U15" t="n">
-        <v>306.7013295628617</v>
+        <v>302.4975517777128</v>
       </c>
       <c r="V15" t="n">
-        <v>259.794914383051</v>
+        <v>255.5911365979022</v>
       </c>
       <c r="W15" t="n">
-        <v>186.5696480298976</v>
+        <v>182.3658702447489</v>
       </c>
       <c r="X15" t="n">
-        <v>163.2349565631492</v>
+        <v>159.0311787780006</v>
       </c>
       <c r="Y15" t="n">
-        <v>133.7675664150322</v>
+        <v>35.08050567289293</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.24559604012193</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C16" t="n">
-        <v>53.72244106638512</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D16" t="n">
-        <v>53.72244106638512</v>
+        <v>58.3555237502368</v>
       </c>
       <c r="E16" t="n">
-        <v>53.72244106638512</v>
+        <v>58.3555237502368</v>
       </c>
       <c r="F16" t="n">
-        <v>53.72244106638512</v>
+        <v>58.3555237502368</v>
       </c>
       <c r="G16" t="n">
-        <v>78.9828644734603</v>
+        <v>58.3555237502368</v>
       </c>
       <c r="H16" t="n">
-        <v>78.9828644734603</v>
+        <v>58.3555237502368</v>
       </c>
       <c r="I16" t="n">
-        <v>78.9828644734603</v>
+        <v>87.56297590987215</v>
       </c>
       <c r="J16" t="n">
-        <v>78.9828644734603</v>
+        <v>161.1300818196378</v>
       </c>
       <c r="K16" t="n">
-        <v>78.9828644734603</v>
+        <v>161.1300818196378</v>
       </c>
       <c r="L16" t="n">
-        <v>78.9828644734603</v>
+        <v>282.6141365299538</v>
       </c>
       <c r="M16" t="n">
-        <v>78.9828644734603</v>
+        <v>385.3268090894736</v>
       </c>
       <c r="N16" t="n">
-        <v>197.1215076800431</v>
+        <v>385.3268090894736</v>
       </c>
       <c r="O16" t="n">
-        <v>197.1215076800431</v>
+        <v>385.3268090894736</v>
       </c>
       <c r="P16" t="n">
-        <v>318.6055623903591</v>
+        <v>385.3268090894736</v>
       </c>
       <c r="Q16" t="n">
-        <v>385.3268090894741</v>
+        <v>385.3268090894736</v>
       </c>
       <c r="R16" t="n">
-        <v>376.2325924295966</v>
+        <v>376.2325924295961</v>
       </c>
       <c r="S16" t="n">
-        <v>334.6739073347152</v>
+        <v>334.6739073347148</v>
       </c>
       <c r="T16" t="n">
-        <v>304.8460822688454</v>
+        <v>304.8460822688451</v>
       </c>
       <c r="U16" t="n">
-        <v>209.4473690135986</v>
+        <v>209.4473690135983</v>
       </c>
       <c r="V16" t="n">
-        <v>158.0358081074772</v>
+        <v>158.035808107477</v>
       </c>
       <c r="W16" t="n">
-        <v>60.96597254995636</v>
+        <v>60.96597254995625</v>
       </c>
       <c r="X16" t="n">
-        <v>32.97820939757978</v>
+        <v>32.97820939757973</v>
       </c>
       <c r="Y16" t="n">
         <v>9.816893309924525</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.4102657154747</v>
+        <v>317.4102657154745</v>
       </c>
       <c r="C17" t="n">
-        <v>287.5525337633676</v>
+        <v>287.5525337633674</v>
       </c>
       <c r="D17" t="n">
-        <v>270.2537288203024</v>
+        <v>270.2537288203023</v>
       </c>
       <c r="E17" t="n">
-        <v>218.9076992111677</v>
+        <v>218.907699211168</v>
       </c>
       <c r="F17" t="n">
-        <v>135.520924573369</v>
+        <v>135.5209245733693</v>
       </c>
       <c r="G17" t="n">
-        <v>36.3480310640022</v>
+        <v>36.34803106400222</v>
       </c>
       <c r="H17" t="n">
         <v>9.816893309924525</v>
@@ -5513,37 +5513,37 @@
         <v>9.816893309924525</v>
       </c>
       <c r="J17" t="n">
-        <v>9.816893309924525</v>
+        <v>51.9489283545869</v>
       </c>
       <c r="K17" t="n">
-        <v>9.816893309924525</v>
+        <v>51.9489283545869</v>
       </c>
       <c r="L17" t="n">
-        <v>58.20402256113604</v>
+        <v>173.4329830649029</v>
       </c>
       <c r="M17" t="n">
-        <v>140.919986739299</v>
+        <v>256.1489472430659</v>
       </c>
       <c r="N17" t="n">
-        <v>262.404041449615</v>
+        <v>333.3609061815152</v>
       </c>
       <c r="O17" t="n">
-        <v>328.6143099920541</v>
+        <v>369.3606107859102</v>
       </c>
       <c r="P17" t="n">
-        <v>328.6143099920541</v>
+        <v>369.3606107859102</v>
       </c>
       <c r="Q17" t="n">
-        <v>328.6143099920541</v>
+        <v>369.3606107859102</v>
       </c>
       <c r="R17" t="n">
-        <v>328.6143099920541</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="S17" t="n">
-        <v>421.0529775341719</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="T17" t="n">
-        <v>421.0529775341719</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="U17" t="n">
         <v>490.8446654962262</v>
@@ -5552,13 +5552,13 @@
         <v>490.6088666471765</v>
       </c>
       <c r="W17" t="n">
-        <v>473.1845019227583</v>
+        <v>473.1845019227581</v>
       </c>
       <c r="X17" t="n">
         <v>433.6528134923408</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.3909703914751</v>
+        <v>371.390970391475</v>
       </c>
     </row>
     <row r="18">
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>133.7675664150322</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C18" t="n">
         <v>9.816893309924525</v>
@@ -5595,10 +5595,10 @@
         <v>9.816893309924525</v>
       </c>
       <c r="K18" t="n">
-        <v>9.816893309924525</v>
+        <v>48.6924984314918</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3764842781289</v>
+        <v>167.2520893996962</v>
       </c>
       <c r="M18" t="n">
         <v>247.8765560755942</v>
@@ -5613,31 +5613,31 @@
         <v>490.8446654962262</v>
       </c>
       <c r="Q18" t="n">
-        <v>490.8446654962262</v>
+        <v>484.64162429573</v>
       </c>
       <c r="R18" t="n">
-        <v>490.8446654962262</v>
+        <v>360.6909511906223</v>
       </c>
       <c r="S18" t="n">
-        <v>490.8446654962262</v>
+        <v>236.7402780855147</v>
       </c>
       <c r="T18" t="n">
-        <v>490.8446654962262</v>
+        <v>236.7402780855147</v>
       </c>
       <c r="U18" t="n">
-        <v>366.8939923911186</v>
+        <v>236.7402780855147</v>
       </c>
       <c r="V18" t="n">
-        <v>242.943319286011</v>
+        <v>236.7402780855147</v>
       </c>
       <c r="W18" t="n">
-        <v>242.943319286011</v>
+        <v>236.7402780855147</v>
       </c>
       <c r="X18" t="n">
-        <v>242.943319286011</v>
+        <v>133.7675664150322</v>
       </c>
       <c r="Y18" t="n">
-        <v>242.943319286011</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.4102657154745</v>
+        <v>317.4102657154747</v>
       </c>
       <c r="C20" t="n">
         <v>287.5525337633674</v>
       </c>
       <c r="D20" t="n">
-        <v>270.2537288203028</v>
+        <v>270.2537288203023</v>
       </c>
       <c r="E20" t="n">
-        <v>218.9076992111681</v>
+        <v>218.9076992111676</v>
       </c>
       <c r="F20" t="n">
-        <v>135.5209245733694</v>
+        <v>135.5209245733689</v>
       </c>
       <c r="G20" t="n">
         <v>36.3480310640022</v>
@@ -5750,34 +5750,34 @@
         <v>9.816893309924525</v>
       </c>
       <c r="J20" t="n">
-        <v>56.84636229683811</v>
+        <v>131.3009480202405</v>
       </c>
       <c r="K20" t="n">
-        <v>56.84636229683811</v>
+        <v>131.3009480202405</v>
       </c>
       <c r="L20" t="n">
-        <v>105.2334915480496</v>
+        <v>179.688077271452</v>
       </c>
       <c r="M20" t="n">
-        <v>187.9494557262126</v>
+        <v>262.404041449615</v>
       </c>
       <c r="N20" t="n">
-        <v>265.1614146646619</v>
+        <v>339.6160003880643</v>
       </c>
       <c r="O20" t="n">
-        <v>301.1611192690569</v>
+        <v>375.6157049924593</v>
       </c>
       <c r="P20" t="n">
-        <v>301.1611192690569</v>
+        <v>375.6157049924593</v>
       </c>
       <c r="Q20" t="n">
-        <v>301.1611192690569</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="R20" t="n">
-        <v>301.1611192690569</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="S20" t="n">
-        <v>393.5997868111747</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="T20" t="n">
         <v>490.8446654962262</v>
@@ -5792,10 +5792,10 @@
         <v>473.1845019227583</v>
       </c>
       <c r="X20" t="n">
-        <v>433.6528134923408</v>
+        <v>433.6528134923409</v>
       </c>
       <c r="Y20" t="n">
-        <v>371.390970391475</v>
+        <v>371.3909703914752</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>242.943319286011</v>
+        <v>112.7896049804071</v>
       </c>
       <c r="C21" t="n">
-        <v>242.943319286011</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D21" t="n">
-        <v>242.943319286011</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E21" t="n">
-        <v>118.9926461809033</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F21" t="n">
-        <v>118.9926461809033</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G21" t="n">
-        <v>118.9926461809033</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H21" t="n">
         <v>9.816893309924525</v>
@@ -5835,13 +5835,13 @@
         <v>48.6924984314918</v>
       </c>
       <c r="L21" t="n">
-        <v>167.2520893996962</v>
+        <v>48.6924984314918</v>
       </c>
       <c r="M21" t="n">
+        <v>163.1726257573483</v>
+      </c>
+      <c r="N21" t="n">
         <v>284.6566804676643</v>
-      </c>
-      <c r="N21" t="n">
-        <v>406.1407351779803</v>
       </c>
       <c r="O21" t="n">
         <v>406.1407351779803</v>
@@ -5850,31 +5850,31 @@
         <v>490.8446654962262</v>
       </c>
       <c r="Q21" t="n">
-        <v>490.8446654962262</v>
+        <v>484.64162429573</v>
       </c>
       <c r="R21" t="n">
-        <v>490.8446654962262</v>
+        <v>484.64162429573</v>
       </c>
       <c r="S21" t="n">
-        <v>490.8446654962262</v>
+        <v>484.64162429573</v>
       </c>
       <c r="T21" t="n">
-        <v>490.8446654962262</v>
+        <v>484.64162429573</v>
       </c>
       <c r="U21" t="n">
-        <v>490.8446654962262</v>
+        <v>484.64162429573</v>
       </c>
       <c r="V21" t="n">
-        <v>490.8446654962262</v>
+        <v>360.6909511906223</v>
       </c>
       <c r="W21" t="n">
-        <v>366.8939923911186</v>
+        <v>236.7402780855147</v>
       </c>
       <c r="X21" t="n">
-        <v>366.8939923911186</v>
+        <v>236.7402780855147</v>
       </c>
       <c r="Y21" t="n">
-        <v>242.943319286011</v>
+        <v>112.7896049804071</v>
       </c>
     </row>
     <row r="22">
@@ -5984,37 +5984,37 @@
         <v>9.816893309924525</v>
       </c>
       <c r="I23" t="n">
-        <v>89.06417631464153</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J23" t="n">
-        <v>125.0458538136914</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K23" t="n">
-        <v>125.0458538136914</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="L23" t="n">
-        <v>173.4329830649029</v>
+        <v>58.20402256113604</v>
       </c>
       <c r="M23" t="n">
-        <v>256.1489472430659</v>
+        <v>140.919986739299</v>
       </c>
       <c r="N23" t="n">
-        <v>333.3609061815152</v>
+        <v>262.404041449615</v>
       </c>
       <c r="O23" t="n">
-        <v>369.3606107859102</v>
+        <v>298.40374605401</v>
       </c>
       <c r="P23" t="n">
-        <v>490.8446654962262</v>
+        <v>298.40374605401</v>
       </c>
       <c r="Q23" t="n">
-        <v>490.8446654962262</v>
+        <v>419.887800764326</v>
       </c>
       <c r="R23" t="n">
-        <v>490.8446654962262</v>
+        <v>419.887800764326</v>
       </c>
       <c r="S23" t="n">
-        <v>490.8446654962262</v>
+        <v>419.887800764326</v>
       </c>
       <c r="T23" t="n">
         <v>490.8446654962262</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>133.7675664150322</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C24" t="n">
-        <v>133.7675664150322</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D24" t="n">
-        <v>133.7675664150322</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E24" t="n">
-        <v>133.7675664150322</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F24" t="n">
-        <v>133.7675664150322</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G24" t="n">
         <v>9.816893309924525</v>
@@ -6069,19 +6069,19 @@
         <v>9.816893309924525</v>
       </c>
       <c r="K24" t="n">
-        <v>48.6924984314918</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="L24" t="n">
-        <v>167.2520893996962</v>
+        <v>128.3764842781289</v>
       </c>
       <c r="M24" t="n">
-        <v>167.2520893996962</v>
+        <v>249.8605389884449</v>
       </c>
       <c r="N24" t="n">
-        <v>288.7361441100122</v>
+        <v>369.3606107859102</v>
       </c>
       <c r="O24" t="n">
-        <v>410.2201988203282</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="P24" t="n">
         <v>490.8446654962262</v>
@@ -6090,19 +6090,19 @@
         <v>490.8446654962262</v>
       </c>
       <c r="R24" t="n">
-        <v>490.8446654962262</v>
+        <v>366.8939923911186</v>
       </c>
       <c r="S24" t="n">
-        <v>490.8446654962262</v>
+        <v>366.8939923911186</v>
       </c>
       <c r="T24" t="n">
-        <v>366.8939923911186</v>
+        <v>257.7182395201398</v>
       </c>
       <c r="U24" t="n">
-        <v>257.7182395201398</v>
+        <v>133.7675664150322</v>
       </c>
       <c r="V24" t="n">
-        <v>257.7182395201398</v>
+        <v>133.7675664150322</v>
       </c>
       <c r="W24" t="n">
         <v>133.7675664150322</v>
@@ -6111,7 +6111,7 @@
         <v>133.7675664150322</v>
       </c>
       <c r="Y24" t="n">
-        <v>133.7675664150322</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="25">
@@ -6203,55 +6203,55 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8369123686416</v>
+        <v>885.8369123686414</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7242097666774</v>
+        <v>759.7242097666771</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5642824986437</v>
+        <v>599.5642824986433</v>
       </c>
       <c r="F26" t="n">
-        <v>407.363610201946</v>
+        <v>407.3636102019454</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3768190336799</v>
+        <v>199.3768190336792</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03178362070273</v>
+        <v>64.03178362070281</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7479657778252</v>
+        <v>171.7479657778251</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2225660613049</v>
+        <v>377.2225660613046</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4010735381363</v>
+        <v>636.401073538136</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9084159419192</v>
+        <v>929.9084159419184</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.911753105987</v>
+        <v>1217.911753105988</v>
       </c>
       <c r="O26" t="n">
         <v>1464.702835936002</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.071556543466</v>
+        <v>1662.071556543467</v>
       </c>
       <c r="Q26" t="n">
-        <v>1785.188566519002</v>
+        <v>1785.188566519003</v>
       </c>
       <c r="R26" t="n">
-        <v>1803.710490556106</v>
+        <v>1803.710490556107</v>
       </c>
       <c r="S26" t="n">
-        <v>1789.212139823151</v>
+        <v>1789.212139823152</v>
       </c>
       <c r="T26" t="n">
         <v>1779.617585787405</v>
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>246.6560614548027</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="C27" t="n">
-        <v>246.6560614548027</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D27" t="n">
-        <v>246.6560614548027</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E27" t="n">
-        <v>73.09285757621717</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="F27" t="n">
-        <v>73.09285757621717</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="G27" t="n">
-        <v>73.09285757621717</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="H27" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="I27" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="K27" t="n">
-        <v>74.94981493268941</v>
+        <v>74.94981493268942</v>
       </c>
       <c r="L27" t="n">
-        <v>193.5094059008937</v>
+        <v>193.5094059008938</v>
       </c>
       <c r="M27" t="n">
-        <v>376.6175206836082</v>
+        <v>376.6175206836083</v>
       </c>
       <c r="N27" t="n">
         <v>582.9918519763005</v>
@@ -6333,22 +6333,22 @@
         <v>800.7408945687727</v>
       </c>
       <c r="T27" t="n">
-        <v>798.6930785541957</v>
+        <v>798.6930785541956</v>
       </c>
       <c r="U27" t="n">
-        <v>774.1404421955548</v>
+        <v>559.0691451589054</v>
       </c>
       <c r="V27" t="n">
-        <v>531.0607240991889</v>
+        <v>320.4788724555085</v>
       </c>
       <c r="W27" t="n">
-        <v>261.6621548294802</v>
+        <v>51.08030318579977</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2254574828258</v>
+        <v>46.64360583914531</v>
       </c>
       <c r="Y27" t="n">
-        <v>246.6560614548027</v>
+        <v>36.07420981112215</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D28" t="n">
-        <v>103.1347642885385</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E28" t="n">
-        <v>103.1347642885385</v>
+        <v>106.6062082366393</v>
       </c>
       <c r="F28" t="n">
-        <v>103.1347642885385</v>
+        <v>106.6062082366393</v>
       </c>
       <c r="G28" t="n">
-        <v>103.1347642885385</v>
+        <v>130.3855439465278</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1347642885385</v>
+        <v>130.3855439465278</v>
       </c>
       <c r="I28" t="n">
-        <v>116.7335391553823</v>
+        <v>178.1149201432672</v>
       </c>
       <c r="J28" t="n">
-        <v>116.7335391553823</v>
+        <v>270.2039500901369</v>
       </c>
       <c r="K28" t="n">
-        <v>116.7335391553823</v>
+        <v>270.2039500901369</v>
       </c>
       <c r="L28" t="n">
-        <v>116.7335391553823</v>
+        <v>270.2039500901369</v>
       </c>
       <c r="M28" t="n">
-        <v>116.7335391553823</v>
+        <v>270.2039500901369</v>
       </c>
       <c r="N28" t="n">
-        <v>116.7335391553823</v>
+        <v>270.2039500901369</v>
       </c>
       <c r="O28" t="n">
-        <v>116.7335391553823</v>
+        <v>270.2039500901369</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2039500901362</v>
+        <v>270.2039500901369</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2039500901362</v>
+        <v>270.2039500901369</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2039500901362</v>
+        <v>270.2039500901369</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5432591153488</v>
+        <v>247.5432591153494</v>
       </c>
       <c r="T28" t="n">
-        <v>236.613428169573</v>
+        <v>236.6134281695735</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1127090344202</v>
+        <v>160.1127090344206</v>
       </c>
       <c r="V28" t="n">
-        <v>127.5991422483928</v>
+        <v>127.5991422483931</v>
       </c>
       <c r="W28" t="n">
-        <v>49.42730081096597</v>
+        <v>49.42730081096616</v>
       </c>
       <c r="X28" t="n">
-        <v>40.33753177868339</v>
+        <v>40.33753177868349</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.508541979647</v>
+        <v>1024.508541979648</v>
       </c>
       <c r="C29" t="n">
-        <v>885.836912368641</v>
+        <v>885.8369123686419</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7242097666767</v>
+        <v>759.7242097666776</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5642824986429</v>
+        <v>599.5642824986438</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3636102019451</v>
+        <v>407.363610201946</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3768190336789</v>
+        <v>199.3768190336798</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03178362070284</v>
+        <v>64.03178362070288</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J29" t="n">
         <v>171.7479657778251</v>
@@ -6479,34 +6479,34 @@
         <v>1464.702835936003</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.071556543466</v>
+        <v>1662.071556543467</v>
       </c>
       <c r="Q29" t="n">
-        <v>1785.188566519002</v>
+        <v>1785.188566519003</v>
       </c>
       <c r="R29" t="n">
-        <v>1803.710490556106</v>
+        <v>1803.710490556107</v>
       </c>
       <c r="S29" t="n">
-        <v>1789.212139823151</v>
+        <v>1789.212139823152</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.617585787404</v>
+        <v>1779.617585787405</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.012430054895</v>
+        <v>1742.012430054896</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.962733546946</v>
+        <v>1632.962733546947</v>
       </c>
       <c r="W29" t="n">
-        <v>1506.724471163628</v>
+        <v>1506.724471163629</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.378885074312</v>
+        <v>1358.378885074313</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.303144314547</v>
+        <v>1187.303144314548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>246.6560614548023</v>
+        <v>88.53483597596912</v>
       </c>
       <c r="C30" t="n">
-        <v>246.6560614548023</v>
+        <v>88.53483597596912</v>
       </c>
       <c r="D30" t="n">
-        <v>246.6560614548023</v>
+        <v>88.53483597596912</v>
       </c>
       <c r="E30" t="n">
-        <v>196.501926093878</v>
+        <v>88.53483597596912</v>
       </c>
       <c r="F30" t="n">
-        <v>36.07420981112213</v>
+        <v>88.53483597596912</v>
       </c>
       <c r="G30" t="n">
-        <v>36.07420981112213</v>
+        <v>88.53483597596912</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07420981112213</v>
+        <v>88.53483597596912</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07420981112213</v>
+        <v>88.53483597596912</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="K30" t="n">
-        <v>74.94981493268941</v>
+        <v>74.94981493268942</v>
       </c>
       <c r="L30" t="n">
-        <v>193.5094059008937</v>
+        <v>193.5094059008938</v>
       </c>
       <c r="M30" t="n">
-        <v>376.6175206836082</v>
+        <v>376.6175206836083</v>
       </c>
       <c r="N30" t="n">
         <v>582.9918519763005</v>
@@ -6561,31 +6561,31 @@
         <v>800.7408945687727</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.7408945687727</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="R30" t="n">
-        <v>800.7408945687727</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="S30" t="n">
-        <v>800.7408945687727</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="T30" t="n">
-        <v>798.6930785541956</v>
+        <v>792.4900373536993</v>
       </c>
       <c r="U30" t="n">
-        <v>774.1404421955546</v>
+        <v>552.8661039584091</v>
       </c>
       <c r="V30" t="n">
-        <v>746.1320211358378</v>
+        <v>524.8576828986924</v>
       </c>
       <c r="W30" t="n">
-        <v>476.7334518661291</v>
+        <v>470.5304106656328</v>
       </c>
       <c r="X30" t="n">
-        <v>472.2967545194746</v>
+        <v>314.1755290406414</v>
       </c>
       <c r="Y30" t="n">
-        <v>246.6560614548023</v>
+        <v>88.53483597596912</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="F31" t="n">
-        <v>52.06485147037439</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="G31" t="n">
-        <v>95.84719891455359</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="H31" t="n">
-        <v>95.84719891455359</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="I31" t="n">
-        <v>95.84719891455359</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J31" t="n">
-        <v>95.84719891455359</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="K31" t="n">
-        <v>95.84719891455359</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="L31" t="n">
-        <v>95.84719891455359</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="M31" t="n">
-        <v>95.84719891455359</v>
+        <v>75.04272983029065</v>
       </c>
       <c r="N31" t="n">
-        <v>95.84719891455359</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="O31" t="n">
-        <v>270.203950090137</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="P31" t="n">
-        <v>270.203950090137</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.203950090137</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="R31" t="n">
-        <v>270.203950090137</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5432591153495</v>
+        <v>247.5432591153497</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6134281695736</v>
+        <v>236.6134281695738</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1127090344207</v>
+        <v>160.1127090344208</v>
       </c>
       <c r="V31" t="n">
-        <v>127.5991422483931</v>
+        <v>127.5991422483932</v>
       </c>
       <c r="W31" t="n">
-        <v>49.4273008109662</v>
+        <v>49.42730081096627</v>
       </c>
       <c r="X31" t="n">
-        <v>40.33753177868351</v>
+        <v>40.33753177868355</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
     </row>
     <row r="32">
@@ -6677,37 +6677,37 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8369123686418</v>
+        <v>885.8369123686414</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7242097666775</v>
+        <v>759.7242097666771</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5642824986437</v>
+        <v>599.5642824986433</v>
       </c>
       <c r="F32" t="n">
-        <v>407.363610201946</v>
+        <v>407.3636102019453</v>
       </c>
       <c r="G32" t="n">
-        <v>199.37681903368</v>
+        <v>199.3768190336798</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03178362070278</v>
+        <v>64.03178362070287</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7479657778252</v>
+        <v>171.7479657778251</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2225660613047</v>
+        <v>377.2225660613045</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4010735381362</v>
+        <v>636.401073538136</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9084159419191</v>
+        <v>929.9084159419187</v>
       </c>
       <c r="N32" t="n">
         <v>1217.911753105988</v>
@@ -6716,25 +6716,25 @@
         <v>1464.702835936003</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.071556543466</v>
+        <v>1662.071556543467</v>
       </c>
       <c r="Q32" t="n">
-        <v>1785.188566519002</v>
+        <v>1785.188566519003</v>
       </c>
       <c r="R32" t="n">
-        <v>1803.710490556106</v>
+        <v>1803.710490556107</v>
       </c>
       <c r="S32" t="n">
-        <v>1789.212139823151</v>
+        <v>1789.212139823152</v>
       </c>
       <c r="T32" t="n">
         <v>1779.617585787405</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.012430054895</v>
+        <v>1742.012430054896</v>
       </c>
       <c r="V32" t="n">
-        <v>1632.962733546946</v>
+        <v>1632.962733546947</v>
       </c>
       <c r="W32" t="n">
         <v>1506.724471163629</v>
@@ -6743,7 +6743,7 @@
         <v>1358.378885074312</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.303144314548</v>
+        <v>1187.303144314547</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>163.0241195554082</v>
+        <v>196.8543260500904</v>
       </c>
       <c r="C33" t="n">
-        <v>163.0241195554082</v>
+        <v>196.8543260500904</v>
       </c>
       <c r="D33" t="n">
-        <v>163.0241195554082</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E33" t="n">
-        <v>163.0241195554082</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="F33" t="n">
-        <v>163.0241195554082</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="G33" t="n">
-        <v>163.0241195554082</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="H33" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J33" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="K33" t="n">
-        <v>74.94981493268941</v>
+        <v>74.94981493268942</v>
       </c>
       <c r="L33" t="n">
-        <v>193.5094059008937</v>
+        <v>193.5094059008938</v>
       </c>
       <c r="M33" t="n">
-        <v>376.6175206836082</v>
+        <v>376.6175206836083</v>
       </c>
       <c r="N33" t="n">
         <v>582.9918519763005</v>
@@ -6798,31 +6798,31 @@
         <v>800.7408945687727</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.7408945687727</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="R33" t="n">
-        <v>800.7408945687727</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="S33" t="n">
-        <v>800.7408945687727</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="T33" t="n">
-        <v>583.6217815175464</v>
+        <v>577.4187403170502</v>
       </c>
       <c r="U33" t="n">
-        <v>559.0691451589054</v>
+        <v>337.7948069217599</v>
       </c>
       <c r="V33" t="n">
-        <v>315.9894270625394</v>
+        <v>266.1876916578277</v>
       </c>
       <c r="W33" t="n">
-        <v>261.66215482948</v>
+        <v>211.8604194247681</v>
       </c>
       <c r="X33" t="n">
-        <v>257.2254574828255</v>
+        <v>207.4237220781136</v>
       </c>
       <c r="Y33" t="n">
-        <v>163.0241195554082</v>
+        <v>196.8543260500904</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="C34" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D34" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E34" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="F34" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="G34" t="n">
-        <v>36.07420981112213</v>
+        <v>79.85655725530131</v>
       </c>
       <c r="H34" t="n">
-        <v>36.07420981112213</v>
+        <v>79.85655725530131</v>
       </c>
       <c r="I34" t="n">
-        <v>83.8035860078615</v>
+        <v>79.85655725530131</v>
       </c>
       <c r="J34" t="n">
-        <v>83.8035860078615</v>
+        <v>79.85655725530131</v>
       </c>
       <c r="K34" t="n">
-        <v>90.53869697398858</v>
+        <v>79.85655725530131</v>
       </c>
       <c r="L34" t="n">
-        <v>270.2039500901366</v>
+        <v>259.5218103714493</v>
       </c>
       <c r="M34" t="n">
-        <v>270.2039500901366</v>
+        <v>259.5218103714493</v>
       </c>
       <c r="N34" t="n">
-        <v>270.2039500901366</v>
+        <v>259.5218103714493</v>
       </c>
       <c r="O34" t="n">
-        <v>270.2039500901366</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="P34" t="n">
-        <v>270.2039500901366</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2039500901366</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2039500901366</v>
+        <v>270.2039500901373</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5432591153492</v>
+        <v>247.5432591153497</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6134281695733</v>
+        <v>236.6134281695738</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1127090344204</v>
+        <v>160.1127090344208</v>
       </c>
       <c r="V34" t="n">
-        <v>127.599142248393</v>
+        <v>127.5991422483932</v>
       </c>
       <c r="W34" t="n">
-        <v>49.42730081096609</v>
+        <v>49.42730081096627</v>
       </c>
       <c r="X34" t="n">
-        <v>40.33753177868345</v>
+        <v>40.33753177868355</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.07420981112213</v>
+        <v>36.07420981112215</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>772.2454280561328</v>
+        <v>772.245428056134</v>
       </c>
       <c r="C35" t="n">
-        <v>669.3219062457949</v>
+        <v>669.3219062457958</v>
       </c>
       <c r="D35" t="n">
-        <v>578.9573114444989</v>
+        <v>578.9573114444999</v>
       </c>
       <c r="E35" t="n">
-        <v>454.5454919771335</v>
+        <v>454.5454919771344</v>
       </c>
       <c r="F35" t="n">
-        <v>298.092927481104</v>
+        <v>298.0929274811049</v>
       </c>
       <c r="G35" t="n">
         <v>125.8542441135061</v>
       </c>
       <c r="H35" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="I35" t="n">
-        <v>26.2573165011976</v>
+        <v>33.89281886586259</v>
       </c>
       <c r="J35" t="n">
-        <v>196.9677929233356</v>
+        <v>86.76099317857037</v>
       </c>
       <c r="K35" t="n">
-        <v>437.4791136622501</v>
+        <v>327.2723139174849</v>
       </c>
       <c r="L35" t="n">
-        <v>485.8662429134616</v>
+        <v>375.6594431686964</v>
       </c>
       <c r="M35" t="n">
-        <v>568.5822070916246</v>
+        <v>700.5937348710169</v>
       </c>
       <c r="N35" t="n">
-        <v>645.7941660300739</v>
+        <v>777.8056938094662</v>
       </c>
       <c r="O35" t="n">
-        <v>927.6219693155238</v>
+        <v>1059.633497094916</v>
       </c>
       <c r="P35" t="n">
-        <v>1108.252109681843</v>
+        <v>1292.038938157815</v>
       </c>
       <c r="Q35" t="n">
-        <v>1266.405840112815</v>
+        <v>1292.038938157815</v>
       </c>
       <c r="R35" t="n">
-        <v>1266.405840112815</v>
+        <v>1292.038938157815</v>
       </c>
       <c r="S35" t="n">
-        <v>1287.232727014881</v>
+        <v>1312.865825059881</v>
       </c>
       <c r="T35" t="n">
-        <v>1312.86582505988</v>
+        <v>1312.865825059881</v>
       </c>
       <c r="U35" t="n">
-        <v>1311.008777128039</v>
+        <v>1311.00877712804</v>
       </c>
       <c r="V35" t="n">
-        <v>1237.707188420758</v>
+        <v>1237.707188420759</v>
       </c>
       <c r="W35" t="n">
-        <v>1147.217033838109</v>
+        <v>1147.21703383811</v>
       </c>
       <c r="X35" t="n">
-        <v>1034.619555549461</v>
+        <v>1034.619555549462</v>
       </c>
       <c r="Y35" t="n">
-        <v>899.2919225903643</v>
+        <v>899.2919225903655</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="C36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="D36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="E36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="F36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="G36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="H36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="I36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="J36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="K36" t="n">
         <v>65.13292162276488</v>
@@ -7035,31 +7035,31 @@
         <v>790.9240012588481</v>
       </c>
       <c r="Q36" t="n">
-        <v>790.9240012588481</v>
+        <v>784.7209600583518</v>
       </c>
       <c r="R36" t="n">
-        <v>790.9240012588481</v>
+        <v>744.6592454764711</v>
       </c>
       <c r="S36" t="n">
-        <v>790.9240012588481</v>
+        <v>744.6592454764711</v>
       </c>
       <c r="T36" t="n">
-        <v>790.9240012588481</v>
+        <v>527.5401324252449</v>
       </c>
       <c r="U36" t="n">
-        <v>551.3000678635578</v>
+        <v>287.9161990299547</v>
       </c>
       <c r="V36" t="n">
-        <v>308.2203497671919</v>
+        <v>44.83648093358882</v>
       </c>
       <c r="W36" t="n">
-        <v>251.89800956587</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="X36" t="n">
-        <v>251.89800956587</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="Y36" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
     </row>
     <row r="37">
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="C37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="D37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="E37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="F37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="G37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="H37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="I37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="J37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="K37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="L37" t="n">
-        <v>109.4336614724408</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="M37" t="n">
-        <v>109.4336614724408</v>
+        <v>96.60668424139503</v>
       </c>
       <c r="N37" t="n">
-        <v>109.4336614724408</v>
+        <v>96.60668424139503</v>
       </c>
       <c r="O37" t="n">
-        <v>109.4336614724408</v>
+        <v>96.60668424139503</v>
       </c>
       <c r="P37" t="n">
-        <v>109.4336614724408</v>
+        <v>96.60668424139503</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.4336614724408</v>
+        <v>96.60668424139503</v>
       </c>
       <c r="R37" t="n">
-        <v>109.4336614724408</v>
+        <v>96.60668424139503</v>
       </c>
       <c r="S37" t="n">
         <v>109.4336614724408</v>
@@ -7126,19 +7126,19 @@
         <v>109.4336614724408</v>
       </c>
       <c r="U37" t="n">
-        <v>68.68105013795619</v>
+        <v>68.68105013795623</v>
       </c>
       <c r="V37" t="n">
-        <v>68.68105013795619</v>
+        <v>68.68105013795623</v>
       </c>
       <c r="W37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="X37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
     </row>
     <row r="38">
@@ -7148,67 +7148,67 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>772.2454280561334</v>
+        <v>772.2454280561336</v>
       </c>
       <c r="C38" t="n">
-        <v>669.3219062457955</v>
+        <v>669.3219062457957</v>
       </c>
       <c r="D38" t="n">
-        <v>578.9573114444995</v>
+        <v>578.9573114444997</v>
       </c>
       <c r="E38" t="n">
-        <v>454.545491977134</v>
+        <v>454.5454919771342</v>
       </c>
       <c r="F38" t="n">
-        <v>298.0929274811045</v>
+        <v>298.0929274811047</v>
       </c>
       <c r="G38" t="n">
         <v>125.8542441135061</v>
       </c>
       <c r="H38" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="I38" t="n">
-        <v>26.2573165011976</v>
+        <v>33.89281886586258</v>
       </c>
       <c r="J38" t="n">
-        <v>26.2573165011976</v>
+        <v>33.89281886586258</v>
       </c>
       <c r="K38" t="n">
-        <v>266.7686372401121</v>
+        <v>274.4041396047771</v>
       </c>
       <c r="L38" t="n">
-        <v>315.1557664913237</v>
+        <v>568.6193675370434</v>
       </c>
       <c r="M38" t="n">
-        <v>640.0900581936439</v>
+        <v>651.3353317152064</v>
       </c>
       <c r="N38" t="n">
-        <v>717.3020171320933</v>
+        <v>970.0751479979816</v>
       </c>
       <c r="O38" t="n">
-        <v>999.1298204175431</v>
+        <v>1006.074852602377</v>
       </c>
       <c r="P38" t="n">
-        <v>1154.712094628909</v>
+        <v>1238.480293665276</v>
       </c>
       <c r="Q38" t="n">
-        <v>1312.86582505988</v>
+        <v>1238.480293665276</v>
       </c>
       <c r="R38" t="n">
-        <v>1312.86582505988</v>
+        <v>1292.038938157815</v>
       </c>
       <c r="S38" t="n">
-        <v>1312.86582505988</v>
+        <v>1312.865825059881</v>
       </c>
       <c r="T38" t="n">
-        <v>1312.86582505988</v>
+        <v>1312.865825059881</v>
       </c>
       <c r="U38" t="n">
         <v>1311.008777128039</v>
       </c>
       <c r="V38" t="n">
-        <v>1237.707188420758</v>
+        <v>1237.707188420759</v>
       </c>
       <c r="W38" t="n">
         <v>1147.21703383811</v>
@@ -7217,7 +7217,7 @@
         <v>1034.619555549461</v>
       </c>
       <c r="Y38" t="n">
-        <v>899.2919225903647</v>
+        <v>899.2919225903649</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>521.0283529015073</v>
+        <v>96.09379599663674</v>
       </c>
       <c r="C39" t="n">
-        <v>521.0283529015073</v>
+        <v>96.09379599663674</v>
       </c>
       <c r="D39" t="n">
-        <v>360.2482366625391</v>
+        <v>96.09379599663674</v>
       </c>
       <c r="E39" t="n">
-        <v>186.6850327839535</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="F39" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="G39" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="H39" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="I39" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="J39" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="K39" t="n">
         <v>65.13292162276488</v>
@@ -7281,22 +7281,22 @@
         <v>790.9240012588481</v>
       </c>
       <c r="T39" t="n">
-        <v>765.2482103985709</v>
+        <v>573.8048882076218</v>
       </c>
       <c r="U39" t="n">
-        <v>765.2482103985709</v>
+        <v>334.1809548123316</v>
       </c>
       <c r="V39" t="n">
-        <v>765.2482103985709</v>
+        <v>334.1809548123316</v>
       </c>
       <c r="W39" t="n">
-        <v>746.6690459661797</v>
+        <v>315.6017903799404</v>
       </c>
       <c r="X39" t="n">
-        <v>746.6690459661797</v>
+        <v>96.09379599663674</v>
       </c>
       <c r="Y39" t="n">
-        <v>521.0283529015073</v>
+        <v>96.09379599663674</v>
       </c>
     </row>
     <row r="40">
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="C40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="D40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="E40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="F40" t="n">
-        <v>26.2573165011976</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="G40" t="n">
-        <v>26.2573165011976</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="H40" t="n">
-        <v>26.2573165011976</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="I40" t="n">
-        <v>26.2573165011976</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="J40" t="n">
-        <v>26.2573165011976</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="K40" t="n">
-        <v>26.2573165011976</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="L40" t="n">
-        <v>26.2573165011976</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="M40" t="n">
-        <v>26.2573165011976</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="N40" t="n">
-        <v>26.2573165011976</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="O40" t="n">
-        <v>26.2573165011976</v>
+        <v>109.4336614724408</v>
       </c>
       <c r="P40" t="n">
         <v>109.4336614724408</v>
@@ -7363,19 +7363,19 @@
         <v>109.4336614724408</v>
       </c>
       <c r="U40" t="n">
-        <v>68.68105013795619</v>
+        <v>68.68105013795623</v>
       </c>
       <c r="V40" t="n">
-        <v>68.68105013795619</v>
+        <v>68.68105013795623</v>
       </c>
       <c r="W40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="X40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.2573165011976</v>
+        <v>26.25731650119761</v>
       </c>
     </row>
     <row r="41">
@@ -7385,67 +7385,67 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.8965178780267</v>
+        <v>820.8965178780268</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1824620766013</v>
+        <v>710.1824620766012</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0273332842181</v>
+        <v>612.0273332842178</v>
       </c>
       <c r="E41" t="n">
-        <v>479.824979825765</v>
+        <v>479.8249798257646</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5818813386479</v>
+        <v>315.5818813386477</v>
       </c>
       <c r="G41" t="n">
         <v>135.5526639799621</v>
       </c>
       <c r="H41" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="I41" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="J41" t="n">
-        <v>191.2401764340391</v>
+        <v>191.240176434039</v>
       </c>
       <c r="K41" t="n">
-        <v>418.1785926891755</v>
+        <v>235.1598801131512</v>
       </c>
       <c r="L41" t="n">
-        <v>466.565721940387</v>
+        <v>283.5470093643627</v>
       </c>
       <c r="M41" t="n">
-        <v>787.4742824349399</v>
+        <v>604.4555698589156</v>
       </c>
       <c r="N41" t="n">
-        <v>1102.878837689779</v>
+        <v>681.667528797365</v>
       </c>
       <c r="O41" t="n">
-        <v>1377.071138610564</v>
+        <v>955.8598297181499</v>
       </c>
       <c r="P41" t="n">
-        <v>1377.071138610564</v>
+        <v>1180.629768416384</v>
       </c>
       <c r="Q41" t="n">
-        <v>1377.071138610564</v>
+        <v>1331.14799648269</v>
       </c>
       <c r="R41" t="n">
-        <v>1377.071138610564</v>
+        <v>1377.071138610565</v>
       </c>
       <c r="S41" t="n">
         <v>1390.262523147965</v>
       </c>
       <c r="T41" t="n">
-        <v>1408.260118828299</v>
+        <v>1408.2601188283</v>
       </c>
       <c r="U41" t="n">
-        <v>1398.61253690537</v>
+        <v>1398.612536905371</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.520414207002</v>
+        <v>1317.520414207003</v>
       </c>
       <c r="W41" t="n">
         <v>1219.239725633266</v>
@@ -7454,7 +7454,7 @@
         <v>1098.85171335353</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7335464033456</v>
+        <v>955.7335464033457</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>413.569511495439</v>
+        <v>303.8744762310681</v>
       </c>
       <c r="C42" t="n">
-        <v>413.569511495439</v>
+        <v>303.8744762310681</v>
       </c>
       <c r="D42" t="n">
-        <v>413.569511495439</v>
+        <v>143.0943599920999</v>
       </c>
       <c r="E42" t="n">
-        <v>413.569511495439</v>
+        <v>143.0943599920999</v>
       </c>
       <c r="F42" t="n">
-        <v>253.1417952126831</v>
+        <v>28.165202376566</v>
       </c>
       <c r="G42" t="n">
-        <v>102.9004842487972</v>
+        <v>28.165202376566</v>
       </c>
       <c r="H42" t="n">
-        <v>102.9004842487972</v>
+        <v>28.165202376566</v>
       </c>
       <c r="I42" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="J42" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="K42" t="n">
-        <v>67.04080749813326</v>
+        <v>67.04080749813328</v>
       </c>
       <c r="L42" t="n">
         <v>185.6003984663376</v>
@@ -7512,28 +7512,28 @@
         <v>792.8318871342165</v>
       </c>
       <c r="R42" t="n">
-        <v>657.10917022028</v>
+        <v>792.8318871342165</v>
       </c>
       <c r="S42" t="n">
-        <v>657.10917022028</v>
+        <v>792.8318871342165</v>
       </c>
       <c r="T42" t="n">
-        <v>439.9900571690538</v>
+        <v>792.8318871342165</v>
       </c>
       <c r="U42" t="n">
-        <v>439.9900571690538</v>
+        <v>792.8318871342165</v>
       </c>
       <c r="V42" t="n">
-        <v>439.9392099189178</v>
+        <v>792.7810398840804</v>
       </c>
       <c r="W42" t="n">
-        <v>413.569511495439</v>
+        <v>523.3824706143718</v>
       </c>
       <c r="X42" t="n">
-        <v>413.569511495439</v>
+        <v>303.8744762310681</v>
       </c>
       <c r="Y42" t="n">
-        <v>413.569511495439</v>
+        <v>303.8744762310681</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="C43" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="D43" t="n">
-        <v>122.6269749447523</v>
+        <v>28.165202376566</v>
       </c>
       <c r="E43" t="n">
-        <v>122.6269749447523</v>
+        <v>28.165202376566</v>
       </c>
       <c r="F43" t="n">
-        <v>122.6269749447523</v>
+        <v>28.165202376566</v>
       </c>
       <c r="G43" t="n">
-        <v>122.6269749447523</v>
+        <v>28.165202376566</v>
       </c>
       <c r="H43" t="n">
-        <v>122.6269749447523</v>
+        <v>28.165202376566</v>
       </c>
       <c r="I43" t="n">
-        <v>122.6269749447523</v>
+        <v>28.165202376566</v>
       </c>
       <c r="J43" t="n">
-        <v>122.6269749447523</v>
+        <v>28.165202376566</v>
       </c>
       <c r="K43" t="n">
-        <v>122.6269749447523</v>
+        <v>28.165202376566</v>
       </c>
       <c r="L43" t="n">
-        <v>122.6269749447523</v>
+        <v>28.165202376566</v>
       </c>
       <c r="M43" t="n">
-        <v>122.6269749447523</v>
+        <v>28.165202376566</v>
       </c>
       <c r="N43" t="n">
-        <v>131.4786083064311</v>
+        <v>28.165202376566</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4786083064311</v>
+        <v>28.165202376566</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4786083064311</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.4786083064311</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="R43" t="n">
-        <v>131.4786083064311</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="S43" t="n">
-        <v>131.4786083064311</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="T43" t="n">
-        <v>131.4786083064311</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="U43" t="n">
-        <v>82.93546298085893</v>
+        <v>82.93546298085906</v>
       </c>
       <c r="V43" t="n">
-        <v>78.37947000441217</v>
+        <v>78.37947000441224</v>
       </c>
       <c r="W43" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="X43" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.896517878027</v>
+        <v>820.8965178780273</v>
       </c>
       <c r="C44" t="n">
-        <v>710.1824620766015</v>
+        <v>710.1824620766017</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0273332842178</v>
+        <v>612.027333284218</v>
       </c>
       <c r="E44" t="n">
         <v>479.8249798257647</v>
@@ -7640,28 +7640,28 @@
         <v>135.5526639799621</v>
       </c>
       <c r="H44" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="I44" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="J44" t="n">
         <v>191.240176434039</v>
       </c>
       <c r="K44" t="n">
-        <v>191.240176434039</v>
+        <v>424.1159948082886</v>
       </c>
       <c r="L44" t="n">
-        <v>270.1243517462065</v>
+        <v>472.5031240595001</v>
       </c>
       <c r="M44" t="n">
-        <v>591.0329122407594</v>
+        <v>793.411684554053</v>
       </c>
       <c r="N44" t="n">
-        <v>906.4374674955986</v>
+        <v>1108.816239808892</v>
       </c>
       <c r="O44" t="n">
-        <v>1180.629768416384</v>
+        <v>1144.815944413287</v>
       </c>
       <c r="P44" t="n">
         <v>1180.629768416384</v>
@@ -7670,13 +7670,13 @@
         <v>1331.14799648269</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.071138610564</v>
+        <v>1377.071138610565</v>
       </c>
       <c r="S44" t="n">
         <v>1390.262523147965</v>
       </c>
       <c r="T44" t="n">
-        <v>1408.260118828299</v>
+        <v>1408.2601188283</v>
       </c>
       <c r="U44" t="n">
         <v>1398.612536905371</v>
@@ -7685,13 +7685,13 @@
         <v>1317.520414207003</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.239725633266</v>
+        <v>1219.239725633267</v>
       </c>
       <c r="X44" t="n">
-        <v>1098.85171335353</v>
+        <v>1098.851713353531</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7335464033459</v>
+        <v>955.7335464033463</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>241.0535448241689</v>
+        <v>136.3652508449063</v>
       </c>
       <c r="C45" t="n">
-        <v>241.0535448241689</v>
+        <v>28.165202376566</v>
       </c>
       <c r="D45" t="n">
-        <v>241.0535448241689</v>
+        <v>28.165202376566</v>
       </c>
       <c r="E45" t="n">
-        <v>241.0535448241689</v>
+        <v>28.165202376566</v>
       </c>
       <c r="F45" t="n">
-        <v>80.62582854141297</v>
+        <v>28.165202376566</v>
       </c>
       <c r="G45" t="n">
-        <v>80.62582854141297</v>
+        <v>28.165202376566</v>
       </c>
       <c r="H45" t="n">
-        <v>80.62582854141297</v>
+        <v>28.165202376566</v>
       </c>
       <c r="I45" t="n">
-        <v>80.62582854141297</v>
+        <v>28.165202376566</v>
       </c>
       <c r="J45" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04080749813326</v>
+        <v>67.04080749813328</v>
       </c>
       <c r="L45" t="n">
         <v>185.6003984663376</v>
@@ -7752,25 +7752,25 @@
         <v>792.8318871342165</v>
       </c>
       <c r="S45" t="n">
-        <v>792.8318871342165</v>
+        <v>599.412903953051</v>
       </c>
       <c r="T45" t="n">
-        <v>792.8318871342165</v>
+        <v>382.2937909018248</v>
       </c>
       <c r="U45" t="n">
-        <v>553.2079537389262</v>
+        <v>382.2937909018248</v>
       </c>
       <c r="V45" t="n">
-        <v>553.1571064887902</v>
+        <v>382.2429436516887</v>
       </c>
       <c r="W45" t="n">
-        <v>526.7874080653114</v>
+        <v>355.8732452282099</v>
       </c>
       <c r="X45" t="n">
-        <v>466.6942378888413</v>
+        <v>136.3652508449063</v>
       </c>
       <c r="Y45" t="n">
-        <v>241.0535448241689</v>
+        <v>136.3652508449063</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="C46" t="n">
-        <v>101.5651895307033</v>
+        <v>28.165202376566</v>
       </c>
       <c r="D46" t="n">
-        <v>101.5651895307033</v>
+        <v>28.165202376566</v>
       </c>
       <c r="E46" t="n">
-        <v>101.5651895307033</v>
+        <v>28.165202376566</v>
       </c>
       <c r="F46" t="n">
-        <v>101.5651895307033</v>
+        <v>28.165202376566</v>
       </c>
       <c r="G46" t="n">
-        <v>101.5651895307033</v>
+        <v>28.165202376566</v>
       </c>
       <c r="H46" t="n">
-        <v>101.5651895307033</v>
+        <v>28.165202376566</v>
       </c>
       <c r="I46" t="n">
-        <v>101.5651895307033</v>
+        <v>28.165202376566</v>
       </c>
       <c r="J46" t="n">
-        <v>101.5651895307033</v>
+        <v>28.165202376566</v>
       </c>
       <c r="K46" t="n">
-        <v>101.5651895307033</v>
+        <v>28.165202376566</v>
       </c>
       <c r="L46" t="n">
-        <v>101.5651895307033</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="M46" t="n">
-        <v>101.5651895307033</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="N46" t="n">
-        <v>101.5651895307033</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="O46" t="n">
-        <v>101.5651895307033</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5651895307033</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.5651895307033</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="S46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="T46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="U46" t="n">
-        <v>82.93546298085899</v>
+        <v>82.93546298085906</v>
       </c>
       <c r="V46" t="n">
-        <v>78.3794700044122</v>
+        <v>78.37947000441224</v>
       </c>
       <c r="W46" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="X46" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.16520237656599</v>
+        <v>28.165202376566</v>
       </c>
     </row>
   </sheetData>
@@ -8772,19 +8772,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>120.5473811624957</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>239.5303559843449</v>
+        <v>116.8191896102884</v>
       </c>
       <c r="N12" t="n">
-        <v>224.8661044510103</v>
+        <v>220.7454341052045</v>
       </c>
       <c r="O12" t="n">
         <v>243.5449469681791</v>
       </c>
       <c r="P12" t="n">
-        <v>199.2891999529626</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9012,13 +9012,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>239.530355984345</v>
+        <v>239.5303559843449</v>
       </c>
       <c r="N15" t="n">
-        <v>224.8661044510104</v>
+        <v>183.5937933051336</v>
       </c>
       <c r="O15" t="n">
-        <v>202.2726358223025</v>
+        <v>243.5449469681791</v>
       </c>
       <c r="P15" t="n">
         <v>120.8043485046935</v>
@@ -9243,13 +9243,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>132.1051855825679</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>237.5263328400513</v>
+        <v>198.2580448384682</v>
       </c>
       <c r="N18" t="n">
         <v>224.8661044510103</v>
@@ -9483,16 +9483,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>120.5473811624957</v>
       </c>
       <c r="M21" t="n">
-        <v>235.409685638539</v>
+        <v>232.4556818586283</v>
       </c>
       <c r="N21" t="n">
         <v>224.8661044510103</v>
       </c>
       <c r="O21" t="n">
-        <v>120.8337805941225</v>
+        <v>243.5449469681791</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>132.1051855825679</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>116.8191896102884</v>
+        <v>239.5303559843449</v>
       </c>
       <c r="N24" t="n">
-        <v>224.8661044510103</v>
+        <v>222.8620813067167</v>
       </c>
       <c r="O24" t="n">
         <v>243.5449469681791</v>
       </c>
       <c r="P24" t="n">
-        <v>202.2432037328734</v>
+        <v>120.8043485046935</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.8756704904437</v>
+        <v>179.8756704904436</v>
       </c>
       <c r="C11" t="n">
-        <v>33.28276111973265</v>
+        <v>33.28276111973254</v>
       </c>
       <c r="D11" t="n">
-        <v>143.5605897548377</v>
+        <v>124.4770941711646</v>
       </c>
       <c r="E11" t="n">
-        <v>177.2673421742466</v>
+        <v>177.2673421742464</v>
       </c>
       <c r="F11" t="n">
-        <v>208.9876797526239</v>
+        <v>86.2765133785672</v>
       </c>
       <c r="G11" t="n">
-        <v>101.90477106142</v>
+        <v>101.9047710614199</v>
       </c>
       <c r="H11" t="n">
-        <v>152.7005992377401</v>
+        <v>152.70059923774</v>
       </c>
       <c r="I11" t="n">
-        <v>46.38701225037795</v>
+        <v>46.38701225037785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.20762267428236</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>13.08117443831566</v>
+        <v>126.6682137217623</v>
       </c>
       <c r="W11" t="n">
-        <v>143.6848939383773</v>
+        <v>143.6848939383772</v>
       </c>
       <c r="X11" t="n">
-        <v>165.5711444073165</v>
+        <v>165.5711444073164</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.0739975310603</v>
+        <v>188.0739975310602</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.16450411638705</v>
+        <v>179.8756704904436</v>
       </c>
       <c r="C14" t="n">
-        <v>155.9939274937891</v>
+        <v>155.993927493789</v>
       </c>
       <c r="D14" t="n">
-        <v>143.5605897548376</v>
+        <v>143.5605897548375</v>
       </c>
       <c r="E14" t="n">
-        <v>102.2457282364959</v>
+        <v>177.2673421742464</v>
       </c>
       <c r="F14" t="n">
-        <v>208.9876797526238</v>
+        <v>208.9876797526237</v>
       </c>
       <c r="G14" t="n">
-        <v>224.6159374354765</v>
+        <v>224.6159374354764</v>
       </c>
       <c r="H14" t="n">
-        <v>29.98943286368346</v>
+        <v>152.70059923774</v>
       </c>
       <c r="I14" t="n">
-        <v>46.38701225037785</v>
+        <v>46.38701225037778</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.20762267428237</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>55.93811835407746</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>126.6682137217623</v>
+        <v>3.957047347705682</v>
       </c>
       <c r="W14" t="n">
-        <v>143.6848939383772</v>
+        <v>20.97372756432054</v>
       </c>
       <c r="X14" t="n">
-        <v>42.85997803325985</v>
+        <v>165.5711444073164</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.0739975310602</v>
+        <v>74.48695824761271</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.339550858072471e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>750210.3113076342</v>
+        <v>750210.3113076343</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>750210.3113076345</v>
+        <v>750210.3113076343</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>749642.1958999909</v>
       </c>
       <c r="C2" t="n">
-        <v>749642.1958999909</v>
+        <v>749642.1958999907</v>
       </c>
       <c r="D2" t="n">
         <v>749642.1958999911</v>
       </c>
       <c r="E2" t="n">
-        <v>645991.5756674068</v>
+        <v>645991.5756674071</v>
       </c>
       <c r="F2" t="n">
-        <v>645991.575667407</v>
+        <v>645991.5756674069</v>
       </c>
       <c r="G2" t="n">
+        <v>751160.7665297553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>751160.7665297551</v>
+      </c>
+      <c r="I2" t="n">
         <v>751160.7665297558</v>
       </c>
-      <c r="H2" t="n">
-        <v>751160.7665297557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>751160.7665297553</v>
-      </c>
       <c r="J2" t="n">
-        <v>751160.7665297557</v>
+        <v>751160.7665297558</v>
       </c>
       <c r="K2" t="n">
-        <v>751160.7665297559</v>
+        <v>751160.7665297558</v>
       </c>
       <c r="L2" t="n">
         <v>751160.7665297559</v>
       </c>
       <c r="M2" t="n">
+        <v>751160.7665297558</v>
+      </c>
+      <c r="N2" t="n">
         <v>751160.7665297561</v>
       </c>
-      <c r="N2" t="n">
-        <v>751160.7665297559</v>
-      </c>
       <c r="O2" t="n">
+        <v>751160.766529756</v>
+      </c>
+      <c r="P2" t="n">
         <v>751160.7665297561</v>
-      </c>
-      <c r="P2" t="n">
-        <v>751160.7665297564</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>275420.9947649908</v>
       </c>
       <c r="F3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>101147.8182889625</v>
+        <v>101147.8182889624</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101147.8182889625</v>
+        <v>101147.8182889624</v>
       </c>
       <c r="M3" t="n">
-        <v>28312.50137812929</v>
+        <v>28312.50137812933</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,16 +26427,16 @@
         <v>338683.1874182847</v>
       </c>
       <c r="F4" t="n">
-        <v>338683.1874182847</v>
+        <v>338683.1874182848</v>
       </c>
       <c r="G4" t="n">
+        <v>409186.2663395518</v>
+      </c>
+      <c r="H4" t="n">
         <v>409186.2663395519</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>409186.2663395518</v>
-      </c>
-      <c r="I4" t="n">
-        <v>409186.2663395519</v>
       </c>
       <c r="J4" t="n">
         <v>407456.4004199021</v>
@@ -26454,10 +26454,10 @@
         <v>406912.0322437919</v>
       </c>
       <c r="O4" t="n">
-        <v>407014.960803142</v>
+        <v>407014.9608031419</v>
       </c>
       <c r="P4" t="n">
-        <v>407014.9608031419</v>
+        <v>407014.9608031418</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>26051.38465538856</v>
       </c>
       <c r="F5" t="n">
-        <v>26051.38465538856</v>
+        <v>26051.38465538857</v>
       </c>
       <c r="G5" t="n">
         <v>36680.62957505705</v>
@@ -26494,10 +26494,10 @@
         <v>47579.79330930411</v>
       </c>
       <c r="K5" t="n">
-        <v>47579.79330930409</v>
+        <v>47579.7933093041</v>
       </c>
       <c r="L5" t="n">
-        <v>47579.79330930409</v>
+        <v>47579.7933093041</v>
       </c>
       <c r="M5" t="n">
         <v>43094.2089917089</v>
@@ -26509,7 +26509,7 @@
         <v>43895.8092789131</v>
       </c>
       <c r="P5" t="n">
-        <v>43895.80927891309</v>
+        <v>43895.8092789131</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269914.9510514355</v>
+        <v>269910.4846672303</v>
       </c>
       <c r="C6" t="n">
-        <v>269914.9510514356</v>
+        <v>269910.4846672303</v>
       </c>
       <c r="D6" t="n">
-        <v>269914.9510514358</v>
+        <v>269910.4846672306</v>
       </c>
       <c r="E6" t="n">
-        <v>5836.008828742819</v>
+        <v>5526.687679147903</v>
       </c>
       <c r="F6" t="n">
-        <v>281257.0035937337</v>
+        <v>280947.6824441384</v>
       </c>
       <c r="G6" t="n">
-        <v>204146.0523261844</v>
+        <v>204146.052326184</v>
       </c>
       <c r="H6" t="n">
-        <v>305293.8706151468</v>
+        <v>305293.8706151461</v>
       </c>
       <c r="I6" t="n">
-        <v>305293.8706151464</v>
+        <v>305293.8706151469</v>
       </c>
       <c r="J6" t="n">
         <v>141060.057353494</v>
       </c>
       <c r="K6" t="n">
-        <v>296124.5728005497</v>
+        <v>296124.5728005496</v>
       </c>
       <c r="L6" t="n">
-        <v>194976.7545115871</v>
+        <v>194976.7545115873</v>
       </c>
       <c r="M6" t="n">
-        <v>272842.0239161261</v>
+        <v>272842.0239161256</v>
       </c>
       <c r="N6" t="n">
-        <v>301154.5252942551</v>
+        <v>301154.5252942553</v>
       </c>
       <c r="O6" t="n">
         <v>231492.2673571628</v>
       </c>
       <c r="P6" t="n">
-        <v>300249.9964477014</v>
+        <v>300249.9964477012</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="F2" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="G2" t="n">
         <v>320.6463427485928</v>
@@ -26707,13 +26707,13 @@
         <v>320.6463427485928</v>
       </c>
       <c r="J2" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="K2" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="L2" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="M2" t="n">
         <v>248.3112107889443</v>
@@ -26811,25 +26811,25 @@
         <v>122.7111663740566</v>
       </c>
       <c r="J4" t="n">
-        <v>450.9276226390266</v>
+        <v>450.9276226390268</v>
       </c>
       <c r="K4" t="n">
-        <v>450.9276226390266</v>
+        <v>450.9276226390268</v>
       </c>
       <c r="L4" t="n">
-        <v>450.9276226390266</v>
+        <v>450.9276226390268</v>
       </c>
       <c r="M4" t="n">
-        <v>328.21645626497</v>
+        <v>328.2164562649702</v>
       </c>
       <c r="N4" t="n">
-        <v>328.21645626497</v>
+        <v>328.2164562649701</v>
       </c>
       <c r="O4" t="n">
-        <v>352.0650297070749</v>
+        <v>352.065029707075</v>
       </c>
       <c r="P4" t="n">
-        <v>352.0650297070749</v>
+        <v>352.065029707075</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="F2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4347728612031</v>
+        <v>126.434772861203</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.48581120507956</v>
+        <v>86.48581120507959</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4347728612032</v>
+        <v>126.434772861203</v>
       </c>
       <c r="M2" t="n">
-        <v>35.39062672266161</v>
+        <v>35.39062672266166</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.21645626497</v>
+        <v>328.2164562649702</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="K2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4347728612031</v>
+        <v>126.434772861203</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.48581120507956</v>
+        <v>86.48581120507959</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,37 +28087,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="C11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="D11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="E11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="F11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="H11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="I11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="J11" t="n">
-        <v>194.2115698873896</v>
+        <v>75.87638612011806</v>
       </c>
       <c r="K11" t="n">
-        <v>39.7915263845488</v>
+        <v>128.0816491438953</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>73.83527824151969</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28126,37 +28126,37 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>86.3478283898192</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.55824001833918</v>
+        <v>56.11585117456392</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.55996792937728</v>
+        <v>88.55996792937729</v>
       </c>
       <c r="R11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="T11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>65.40309654139371</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.141010788491304</v>
+        <v>6.141010788491311</v>
       </c>
       <c r="R12" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S12" t="n">
-        <v>102.4171676337057</v>
+        <v>191.4847933493539</v>
       </c>
       <c r="T12" t="n">
-        <v>92.23675554665738</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U12" t="n">
-        <v>194.2115698873896</v>
+        <v>114.5165276872807</v>
       </c>
       <c r="V12" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W12" t="n">
         <v>143.993417202955</v>
       </c>
       <c r="X12" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="13">
@@ -28245,22 +28245,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.2115698873896</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>194.2115698873896</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>194.2115698873896</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G13" t="n">
-        <v>194.2115698873896</v>
+        <v>168.6959906883239</v>
       </c>
       <c r="H13" t="n">
         <v>165.7818614221724</v>
@@ -28275,46 +28275,46 @@
         <v>66.47413857346803</v>
       </c>
       <c r="L13" t="n">
-        <v>31.44053041360792</v>
+        <v>154.1516967876645</v>
       </c>
       <c r="M13" t="n">
-        <v>106.8804684312577</v>
+        <v>147.178080590028</v>
       </c>
       <c r="N13" t="n">
-        <v>15.78803834926588</v>
+        <v>15.78803834926589</v>
       </c>
       <c r="O13" t="n">
-        <v>36.80265358589534</v>
+        <v>115.3985784007075</v>
       </c>
       <c r="P13" t="n">
-        <v>180.6111333345273</v>
+        <v>57.89996696047072</v>
       </c>
       <c r="Q13" t="n">
         <v>126.816371201415</v>
       </c>
       <c r="R13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="T13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="C14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="D14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="E14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="F14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="G14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="H14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="I14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="J14" t="n">
-        <v>78.2617228856362</v>
+        <v>75.87638612011804</v>
       </c>
       <c r="K14" t="n">
-        <v>5.370482769838723</v>
+        <v>121.763372167583</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,40 +28360,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>44.71928865845121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>86.34782838981923</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.55824001833921</v>
+        <v>136.2694063923957</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.2115698873897</v>
+        <v>88.55996792937728</v>
       </c>
       <c r="R14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="S14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="T14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="U14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="V14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="W14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="X14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
     </row>
     <row r="15">
@@ -28418,10 +28418,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7388978542471</v>
+        <v>123.7279216149083</v>
       </c>
       <c r="H15" t="n">
-        <v>2.969244272786682</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I15" t="n">
         <v>107.1669324054735</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.141010788491315</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074055</v>
       </c>
       <c r="S15" t="n">
-        <v>72.9353669825948</v>
+        <v>191.4847933493539</v>
       </c>
       <c r="T15" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="U15" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="V15" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="W15" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="X15" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.2115698873897</v>
+        <v>100.6731197599691</v>
       </c>
     </row>
     <row r="16">
@@ -28482,13 +28482,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.2115698873897</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>194.2115698873897</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28497,61 +28497,61 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>194.2115698873897</v>
+        <v>168.6959906883239</v>
       </c>
       <c r="H16" t="n">
         <v>165.7818614221724</v>
       </c>
       <c r="I16" t="n">
-        <v>164.7090929584652</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="J16" t="n">
-        <v>119.9013618977275</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="K16" t="n">
         <v>66.47413857346803</v>
       </c>
       <c r="L16" t="n">
-        <v>31.44053041360793</v>
+        <v>154.1516967876645</v>
       </c>
       <c r="M16" t="n">
-        <v>24.46691421597142</v>
+        <v>128.2170885185166</v>
       </c>
       <c r="N16" t="n">
-        <v>135.120001184198</v>
+        <v>15.78803834926588</v>
       </c>
       <c r="O16" t="n">
-        <v>36.80265358589536</v>
+        <v>36.80265358589534</v>
       </c>
       <c r="P16" t="n">
-        <v>180.6111333345273</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.2115698873897</v>
+        <v>126.816371201415</v>
       </c>
       <c r="R16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="S16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="T16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="U16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="V16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="X16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
     </row>
     <row r="17">
@@ -28585,22 +28585,22 @@
         <v>240.5985821377676</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87638612011804</v>
+        <v>118.4339972763427</v>
       </c>
       <c r="K17" t="n">
         <v>5.370482769838702</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>73.83527824151969</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>44.71928865845118</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>30.51572114953953</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>13.55824001833918</v>
@@ -28609,16 +28609,16 @@
         <v>88.55996792937728</v>
       </c>
       <c r="R17" t="n">
-        <v>194.2115698873897</v>
+        <v>316.9227362614462</v>
       </c>
       <c r="S17" t="n">
-        <v>320.6463427485928</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T17" t="n">
         <v>222.4191925616721</v>
       </c>
       <c r="U17" t="n">
-        <v>320.6463427485928</v>
+        <v>250.1496882414672</v>
       </c>
       <c r="V17" t="n">
         <v>320.6463427485928</v>
@@ -28640,10 +28640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>68.66649905539671</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>64.80698515030936</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28685,31 +28685,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.141010788491304</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074056</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4847933493539</v>
+        <v>68.77362697529729</v>
       </c>
       <c r="T18" t="n">
         <v>214.947921920714</v>
       </c>
       <c r="U18" t="n">
-        <v>114.5165276872807</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V18" t="n">
-        <v>117.9377545413457</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>115.3699298856929</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>100.6731197599691</v>
       </c>
     </row>
     <row r="19">
@@ -28822,7 +28822,7 @@
         <v>240.5985821377676</v>
       </c>
       <c r="J20" t="n">
-        <v>123.3809002483136</v>
+        <v>198.5875524941746</v>
       </c>
       <c r="K20" t="n">
         <v>5.370482769838702</v>
@@ -28843,16 +28843,16 @@
         <v>13.55824001833918</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55996792937728</v>
+        <v>204.9528573271216</v>
       </c>
       <c r="R20" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="S20" t="n">
-        <v>320.6463427485928</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T20" t="n">
-        <v>320.6463427485928</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U20" t="n">
         <v>250.1496882414672</v>
@@ -28880,13 +28880,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>85.5751669705882</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>49.11640546574311</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28895,7 +28895,7 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H21" t="n">
-        <v>17.59641530457421</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I21" t="n">
         <v>107.1669324054735</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.141010788491304</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.3654897447971</v>
@@ -28937,7 +28937,7 @@
         <v>237.2276940613373</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>117.9377545413457</v>
       </c>
       <c r="W21" t="n">
         <v>143.993417202955</v>
@@ -29056,10 +29056,10 @@
         <v>320.6463427485928</v>
       </c>
       <c r="I23" t="n">
-        <v>320.6463427485928</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="J23" t="n">
-        <v>112.2215149070371</v>
+        <v>75.87638612011804</v>
       </c>
       <c r="K23" t="n">
         <v>5.370482769838702</v>
@@ -29071,16 +29071,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>44.71928865845118</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>136.2694063923957</v>
+        <v>13.55824001833918</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55996792937728</v>
+        <v>211.2711343034338</v>
       </c>
       <c r="R23" t="n">
         <v>194.2115698873897</v>
@@ -29089,7 +29089,7 @@
         <v>227.2739512919082</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4191925616721</v>
+        <v>294.0927933009652</v>
       </c>
       <c r="U23" t="n">
         <v>250.1496882414672</v>
@@ -29129,7 +29129,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>26.0277314801905</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H24" t="n">
         <v>125.6804106468432</v>
@@ -29162,28 +29162,28 @@
         <v>6.141010788491304</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074056</v>
       </c>
       <c r="S24" t="n">
         <v>191.4847933493539</v>
       </c>
       <c r="T24" t="n">
-        <v>92.23675554665739</v>
+        <v>106.863926578445</v>
       </c>
       <c r="U24" t="n">
-        <v>129.1436987190683</v>
+        <v>114.5165276872807</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>143.993417202955</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>100.6731197599691</v>
       </c>
     </row>
     <row r="25">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="C26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="D26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="E26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="F26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="G26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="H26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="I26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="J26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="K26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="L26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="M26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662823</v>
       </c>
       <c r="N26" t="n">
-        <v>212.9205840662812</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="O26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="P26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="R26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="S26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="T26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="U26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="V26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="W26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="X26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
     </row>
     <row r="27">
@@ -29360,7 +29360,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29369,7 +29369,7 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H27" t="n">
-        <v>89.03194935939916</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I27" t="n">
         <v>107.1669324054735</v>
@@ -29405,22 +29405,22 @@
         <v>191.4847933493539</v>
       </c>
       <c r="T27" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="U27" t="n">
-        <v>212.9205840662828</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>4.444550939039317</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
     </row>
     <row r="28">
@@ -29436,25 +29436,25 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>212.9205840662828</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6959906883239</v>
+        <v>192.7155217084133</v>
       </c>
       <c r="H28" t="n">
         <v>165.7818614221724</v>
       </c>
       <c r="I28" t="n">
-        <v>178.4452291876004</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="J28" t="n">
-        <v>119.9013618977275</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="K28" t="n">
         <v>66.47413857346803</v>
@@ -29472,7 +29472,7 @@
         <v>36.80265358589534</v>
       </c>
       <c r="P28" t="n">
-        <v>212.9205840662828</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q28" t="n">
         <v>126.816371201415</v>
@@ -29481,25 +29481,25 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S28" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="T28" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="U28" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="V28" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="W28" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="X28" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.9205840662828</v>
+        <v>212.9205840662827</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="C29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="D29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="E29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="F29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="G29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="I29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="J29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="K29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="L29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="M29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="O29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="P29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="R29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="30">
@@ -29597,10 +29597,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>122.1749778324847</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7388978542471</v>
@@ -29612,7 +29612,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93601990319851</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.141010788491304</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3654897447971</v>
@@ -29642,19 +29642,19 @@
         <v>191.4847933493539</v>
       </c>
       <c r="T30" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U30" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X30" t="n">
-        <v>212.9205840662827</v>
+        <v>62.52158163072914</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29679,10 +29679,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>155.0790455106207</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>212.9205840662827</v>
+        <v>168.6959906883239</v>
       </c>
       <c r="H31" t="n">
         <v>165.7818614221724</v>
@@ -29700,13 +29700,13 @@
         <v>31.44053041360792</v>
       </c>
       <c r="M31" t="n">
-        <v>24.46691421597141</v>
+        <v>63.82905564947495</v>
       </c>
       <c r="N31" t="n">
-        <v>15.78803834926588</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="O31" t="n">
-        <v>212.9205840662827</v>
+        <v>36.80265358589534</v>
       </c>
       <c r="P31" t="n">
         <v>57.89996696047071</v>
@@ -29718,25 +29718,25 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="C32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="D32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="E32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="F32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="G32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="I32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="J32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="K32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="L32" t="n">
         <v>212.9205840662827</v>
       </c>
       <c r="M32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="O32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="P32" t="n">
-        <v>212.9205840662814</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="R32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="33">
@@ -29831,7 +29831,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -29843,7 +29843,7 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I33" t="n">
         <v>107.1669324054735</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.141010788491304</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.3654897447971</v>
@@ -29882,19 +29882,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>169.7578768041093</v>
       </c>
       <c r="W33" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X33" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y33" t="n">
-        <v>130.1249615858825</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="34">
@@ -29919,22 +29919,22 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6959906883239</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H34" t="n">
         <v>165.7818614221724</v>
       </c>
       <c r="I34" t="n">
-        <v>212.9205840662827</v>
+        <v>164.7090929584652</v>
       </c>
       <c r="J34" t="n">
         <v>119.9013618977275</v>
       </c>
       <c r="K34" t="n">
-        <v>73.27728096349539</v>
+        <v>66.47413857346803</v>
       </c>
       <c r="L34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="M34" t="n">
         <v>24.46691421597141</v>
@@ -29943,7 +29943,7 @@
         <v>15.78803834926588</v>
       </c>
       <c r="O34" t="n">
-        <v>36.80265358589534</v>
+        <v>47.59269370578216</v>
       </c>
       <c r="P34" t="n">
         <v>57.89996696047071</v>
@@ -29955,25 +29955,25 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="35">
@@ -30004,10 +30004,10 @@
         <v>248.3112107889443</v>
       </c>
       <c r="I35" t="n">
-        <v>240.5985821377676</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="J35" t="n">
-        <v>248.3112107889443</v>
+        <v>129.2785823955805</v>
       </c>
       <c r="K35" t="n">
         <v>248.3112107889443</v>
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>244.6649772971288</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,10 +30025,10 @@
         <v>248.3112107889443</v>
       </c>
       <c r="P35" t="n">
-        <v>196.0129272570459</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.3112107889443</v>
+        <v>88.55996792937728</v>
       </c>
       <c r="R35" t="n">
         <v>194.2115698873897</v>
@@ -30037,7 +30037,7 @@
         <v>248.3112107889443</v>
       </c>
       <c r="T35" t="n">
-        <v>248.3112107889443</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U35" t="n">
         <v>248.3112107889443</v>
@@ -30107,16 +30107,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.141010788491304</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3654897447971</v>
+        <v>94.70439230873527</v>
       </c>
       <c r="S36" t="n">
         <v>191.4847933493539</v>
       </c>
       <c r="T36" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30125,13 +30125,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>210.9454667777028</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30168,13 +30168,13 @@
         <v>119.9013618977275</v>
       </c>
       <c r="K37" t="n">
-        <v>150.4906486454308</v>
+        <v>66.47413857346803</v>
       </c>
       <c r="L37" t="n">
         <v>31.44053041360792</v>
       </c>
       <c r="M37" t="n">
-        <v>24.46691421597141</v>
+        <v>95.52688163031223</v>
       </c>
       <c r="N37" t="n">
         <v>15.78803834926588</v>
@@ -30192,7 +30192,7 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S37" t="n">
-        <v>235.3546681313223</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="T37" t="n">
         <v>223.7411167026008</v>
@@ -30241,7 +30241,7 @@
         <v>248.3112107889443</v>
       </c>
       <c r="I38" t="n">
-        <v>240.5985821377676</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="J38" t="n">
         <v>75.87638612011804</v>
@@ -30250,28 +30250,28 @@
         <v>248.3112107889443</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="M38" t="n">
-        <v>244.6649772971286</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>243.9675326710363</v>
       </c>
       <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>248.3112107889443</v>
       </c>
-      <c r="P38" t="n">
-        <v>170.7120523530519</v>
-      </c>
       <c r="Q38" t="n">
+        <v>88.55996792937728</v>
+      </c>
+      <c r="R38" t="n">
         <v>248.3112107889443</v>
       </c>
-      <c r="R38" t="n">
-        <v>194.2115698873897</v>
-      </c>
       <c r="S38" t="n">
-        <v>227.2739512919082</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="T38" t="n">
         <v>222.4191925616721</v>
@@ -30305,13 +30305,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>102.6894571393149</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7388978542471</v>
@@ -30353,10 +30353,10 @@
         <v>191.4847933493539</v>
       </c>
       <c r="T39" t="n">
-        <v>189.5288889690395</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -30365,10 +30365,10 @@
         <v>248.3112107889443</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30390,7 +30390,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>222.9433922904095</v>
       </c>
       <c r="G40" t="n">
         <v>168.6959906883239</v>
@@ -30420,7 +30420,7 @@
         <v>36.80265358589534</v>
       </c>
       <c r="P40" t="n">
-        <v>141.9164770324335</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q40" t="n">
         <v>126.816371201415</v>
@@ -30484,7 +30484,7 @@
         <v>240.5985821377676</v>
       </c>
       <c r="K41" t="n">
-        <v>234.6012062598755</v>
+        <v>49.73381981944697</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30493,19 +30493,19 @@
         <v>240.5985821377676</v>
       </c>
       <c r="N41" t="n">
-        <v>240.5985821377676</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>240.5985821377676</v>
       </c>
       <c r="P41" t="n">
-        <v>13.55824001833918</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.55996792937728</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="R41" t="n">
-        <v>194.2115698873897</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="S41" t="n">
         <v>240.5985821377676</v>
@@ -30542,22 +30542,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>45.04357308054982</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H42" t="n">
         <v>125.6804106468432</v>
       </c>
       <c r="I42" t="n">
-        <v>33.1790033519646</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J42" t="n">
         <v>51.93601990319851</v>
@@ -30584,13 +30584,13 @@
         <v>6.141010788491304</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S42" t="n">
         <v>191.4847933493539</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276940613373</v>
@@ -30599,10 +30599,10 @@
         <v>240.5985821377676</v>
       </c>
       <c r="W42" t="n">
-        <v>240.5985821377676</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30621,7 +30621,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>240.5985821377676</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30651,13 +30651,13 @@
         <v>24.46691421597141</v>
       </c>
       <c r="N43" t="n">
-        <v>24.7290821489414</v>
+        <v>15.78803834926588</v>
       </c>
       <c r="O43" t="n">
         <v>36.80265358589534</v>
       </c>
       <c r="P43" t="n">
-        <v>57.89996696047071</v>
+        <v>162.2569426472033</v>
       </c>
       <c r="Q43" t="n">
         <v>126.816371201415</v>
@@ -30721,10 +30721,10 @@
         <v>240.5985821377676</v>
       </c>
       <c r="K44" t="n">
-        <v>5.370482769838702</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="L44" t="n">
-        <v>30.80509703126869</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>240.5985821377676</v>
@@ -30733,10 +30733,10 @@
         <v>240.5985821377676</v>
       </c>
       <c r="O44" t="n">
-        <v>240.5985821377676</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>13.55824001833918</v>
+        <v>49.73381981944716</v>
       </c>
       <c r="Q44" t="n">
         <v>240.5985821377676</v>
@@ -30776,7 +30776,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>80.40010354070907</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30785,7 +30785,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7388978542471</v>
@@ -30797,7 +30797,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.93601990319851</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30824,13 +30824,13 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4847933493539</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V45" t="n">
         <v>240.5985821377676</v>
@@ -30839,10 +30839,10 @@
         <v>240.5985821377676</v>
       </c>
       <c r="X45" t="n">
-        <v>157.8206759647651</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30855,7 +30855,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>240.5985821377676</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
@@ -30882,7 +30882,7 @@
         <v>66.47413857346803</v>
       </c>
       <c r="L46" t="n">
-        <v>31.44053041360792</v>
+        <v>135.7975061003405</v>
       </c>
       <c r="M46" t="n">
         <v>24.46691421597141</v>
@@ -30900,7 +30900,7 @@
         <v>126.816371201415</v>
       </c>
       <c r="R46" t="n">
-        <v>233.4304189016058</v>
+        <v>203.2148443806685</v>
       </c>
       <c r="S46" t="n">
         <v>235.3546681313223</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4173847717455089</v>
+        <v>0.4173847717455088</v>
       </c>
       <c r="H11" t="n">
         <v>4.274541793638694</v>
       </c>
       <c r="I11" t="n">
-        <v>16.09122641271875</v>
+        <v>16.09122641271874</v>
       </c>
       <c r="J11" t="n">
         <v>35.42501077093542</v>
       </c>
       <c r="K11" t="n">
-        <v>53.09290815892282</v>
+        <v>53.09290815892281</v>
       </c>
       <c r="L11" t="n">
-        <v>65.86644736722945</v>
+        <v>65.86644736722944</v>
       </c>
       <c r="M11" t="n">
-        <v>73.28911380175865</v>
+        <v>73.28911380175863</v>
       </c>
       <c r="N11" t="n">
-        <v>74.47500828448058</v>
+        <v>74.47500828448057</v>
       </c>
       <c r="O11" t="n">
-        <v>70.32463846043618</v>
+        <v>70.32463846043615</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02045190796891</v>
+        <v>60.0204519079689</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07285976983286</v>
+        <v>45.07285976983285</v>
       </c>
       <c r="R11" t="n">
-        <v>26.21854616815885</v>
+        <v>26.21854616815884</v>
       </c>
       <c r="S11" t="n">
-        <v>9.511155486150795</v>
+        <v>9.511155486150791</v>
       </c>
       <c r="T11" t="n">
         <v>1.827101838315966</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339078173964071</v>
+        <v>0.0333907817396407</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>2.156806276053522</v>
       </c>
       <c r="I12" t="n">
-        <v>7.688887042243484</v>
+        <v>7.688887042243481</v>
       </c>
       <c r="J12" t="n">
-        <v>21.09889372954992</v>
+        <v>21.09889372954991</v>
       </c>
       <c r="K12" t="n">
         <v>36.0613699661501</v>
       </c>
       <c r="L12" t="n">
-        <v>48.48896216895078</v>
+        <v>48.48896216895077</v>
       </c>
       <c r="M12" t="n">
-        <v>56.584331774574</v>
+        <v>56.58433177457398</v>
       </c>
       <c r="N12" t="n">
-        <v>58.0819506647129</v>
+        <v>58.08195066471288</v>
       </c>
       <c r="O12" t="n">
-        <v>53.13363762809964</v>
+        <v>53.13363762809963</v>
       </c>
       <c r="P12" t="n">
-        <v>42.6444285407894</v>
+        <v>42.64442854078938</v>
       </c>
       <c r="Q12" t="n">
         <v>28.50667114362475</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86546305350303</v>
+        <v>13.86546305350302</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148081098586131</v>
+        <v>4.14808109858613</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9001384957734723</v>
+        <v>0.900138495773472</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469214084505125</v>
+        <v>0.01469214084505124</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872244396210901</v>
+        <v>0.18722443962109</v>
       </c>
       <c r="H13" t="n">
         <v>1.664595472267511</v>
       </c>
       <c r="I13" t="n">
-        <v>5.630349511514239</v>
+        <v>5.630349511514237</v>
       </c>
       <c r="J13" t="n">
         <v>13.23676788121107</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75207580325028</v>
+        <v>21.75207580325027</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83516805057553</v>
+        <v>27.83516805057552</v>
       </c>
       <c r="M13" t="n">
-        <v>29.34828193078597</v>
+        <v>29.34828193078596</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65044538310738</v>
+        <v>28.65044538310737</v>
       </c>
       <c r="O13" t="n">
-        <v>26.463323520261</v>
+        <v>26.46332352026099</v>
       </c>
       <c r="P13" t="n">
         <v>22.64394495199074</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.67749375772601</v>
+        <v>15.677493757726</v>
       </c>
       <c r="R13" t="n">
-        <v>8.418291621508285</v>
+        <v>8.418291621508283</v>
       </c>
       <c r="S13" t="n">
-        <v>3.262811370487542</v>
+        <v>3.262811370487541</v>
       </c>
       <c r="T13" t="n">
-        <v>0.799958969290112</v>
+        <v>0.7999589692901118</v>
       </c>
       <c r="U13" t="n">
         <v>0.01021224216115038</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4173847717455088</v>
+        <v>0.4173847717455089</v>
       </c>
       <c r="H14" t="n">
-        <v>4.274541793638693</v>
+        <v>4.274541793638694</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09122641271874</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J14" t="n">
-        <v>35.42501077093541</v>
+        <v>35.42501077093542</v>
       </c>
       <c r="K14" t="n">
-        <v>53.0929081589228</v>
+        <v>53.09290815892282</v>
       </c>
       <c r="L14" t="n">
-        <v>65.86644736722943</v>
+        <v>65.86644736722945</v>
       </c>
       <c r="M14" t="n">
-        <v>73.28911380175862</v>
+        <v>73.28911380175865</v>
       </c>
       <c r="N14" t="n">
-        <v>74.47500828448055</v>
+        <v>74.47500828448058</v>
       </c>
       <c r="O14" t="n">
-        <v>70.32463846043615</v>
+        <v>70.32463846043618</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02045190796889</v>
+        <v>60.02045190796891</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07285976983284</v>
+        <v>45.07285976983286</v>
       </c>
       <c r="R14" t="n">
-        <v>26.21854616815884</v>
+        <v>26.21854616815885</v>
       </c>
       <c r="S14" t="n">
-        <v>9.511155486150791</v>
+        <v>9.511155486150795</v>
       </c>
       <c r="T14" t="n">
         <v>1.827101838315966</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0333907817396407</v>
+        <v>0.03339078173964071</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32069,46 @@
         <v>0.2233205408447788</v>
       </c>
       <c r="H15" t="n">
-        <v>2.156806276053521</v>
+        <v>2.156806276053522</v>
       </c>
       <c r="I15" t="n">
-        <v>7.68888704224348</v>
+        <v>7.688887042243484</v>
       </c>
       <c r="J15" t="n">
-        <v>21.09889372954991</v>
+        <v>21.09889372954992</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06136996615009</v>
+        <v>36.0613699661501</v>
       </c>
       <c r="L15" t="n">
-        <v>48.48896216895076</v>
+        <v>48.48896216895078</v>
       </c>
       <c r="M15" t="n">
-        <v>56.58433177457398</v>
+        <v>56.584331774574</v>
       </c>
       <c r="N15" t="n">
-        <v>58.08195066471288</v>
+        <v>58.0819506647129</v>
       </c>
       <c r="O15" t="n">
-        <v>53.13363762809962</v>
+        <v>53.13363762809964</v>
       </c>
       <c r="P15" t="n">
-        <v>42.64442854078938</v>
+        <v>42.6444285407894</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.50667114362474</v>
+        <v>28.50667114362475</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86546305350302</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148081098586129</v>
+        <v>4.148081098586131</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9001384957734719</v>
+        <v>0.9001384957734723</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01469214084505124</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.18722443962109</v>
+        <v>0.1872244396210901</v>
       </c>
       <c r="H16" t="n">
         <v>1.664595472267511</v>
       </c>
       <c r="I16" t="n">
-        <v>5.630349511514236</v>
+        <v>5.630349511514239</v>
       </c>
       <c r="J16" t="n">
-        <v>13.23676788121106</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K16" t="n">
-        <v>21.75207580325027</v>
+        <v>21.75207580325028</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83516805057551</v>
+        <v>27.83516805057553</v>
       </c>
       <c r="M16" t="n">
-        <v>29.34828193078595</v>
+        <v>29.34828193078597</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65044538310737</v>
+        <v>28.65044538310738</v>
       </c>
       <c r="O16" t="n">
-        <v>26.46332352026099</v>
+        <v>26.463323520261</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64394495199073</v>
+        <v>22.64394495199074</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.677493757726</v>
+        <v>15.67749375772601</v>
       </c>
       <c r="R16" t="n">
-        <v>8.418291621508281</v>
+        <v>8.418291621508285</v>
       </c>
       <c r="S16" t="n">
-        <v>3.26281137048754</v>
+        <v>3.262811370487542</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7999589692901117</v>
+        <v>0.799958969290112</v>
       </c>
       <c r="U16" t="n">
         <v>0.01021224216115038</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.3351837672716</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>34.42104361471009</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="L11" t="n">
-        <v>48.87588813253689</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="M11" t="n">
-        <v>83.5514789678414</v>
+        <v>83.55147896784139</v>
       </c>
       <c r="N11" t="n">
-        <v>77.99187771560538</v>
+        <v>77.99187771560537</v>
       </c>
       <c r="O11" t="n">
-        <v>122.7111663740566</v>
+        <v>36.36333798423732</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>42.55761115622472</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.26828800158311</v>
+        <v>39.2682880015831</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M12" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>122.7111663740566</v>
+        <v>118.5904960282507</v>
       </c>
       <c r="O12" t="n">
         <v>122.7111663740566</v>
       </c>
       <c r="P12" t="n">
-        <v>78.48485144826913</v>
+        <v>85.55952557398578</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,22 +35541,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.59464922242151</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>27.75438891541725</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>49.02891963667889</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>55.28468766894295</v>
+        <v>55.28468766894306</v>
       </c>
       <c r="G13" t="n">
-        <v>25.51557919906573</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="M13" t="n">
-        <v>82.41355421528631</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>78.59592481481212</v>
       </c>
       <c r="P13" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.385336765518134</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>116.3928893977443</v>
       </c>
       <c r="L14" t="n">
-        <v>48.87588813253686</v>
+        <v>48.87588813253689</v>
       </c>
       <c r="M14" t="n">
-        <v>83.55147896784138</v>
+        <v>83.5514789678414</v>
       </c>
       <c r="N14" t="n">
+        <v>77.99187771560538</v>
+      </c>
+      <c r="O14" t="n">
+        <v>36.36333798423735</v>
+      </c>
+      <c r="P14" t="n">
         <v>122.7111663740566</v>
       </c>
-      <c r="O14" t="n">
-        <v>122.7111663740566</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>105.6516019580124</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.26828800158309</v>
+        <v>39.26828800158311</v>
       </c>
       <c r="L15" t="n">
         <v>119.7571625941458</v>
@@ -35735,10 +35735,10 @@
         <v>122.7111663740566</v>
       </c>
       <c r="N15" t="n">
+        <v>81.43885522817988</v>
+      </c>
+      <c r="O15" t="n">
         <v>122.7111663740566</v>
-      </c>
-      <c r="O15" t="n">
-        <v>81.43885522817993</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35778,13 +35778,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.59464922242162</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>27.75438891541737</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49.02891963667906</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35793,37 +35793,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>25.51557919906584</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>29.50247692892459</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.31020798966232</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>103.7501743025452</v>
       </c>
       <c r="N16" t="n">
-        <v>119.3319628349322</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>122.7111663740566</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.39519868597473</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,40 +35881,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>42.55761115622462</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.87588813253689</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="M17" t="n">
         <v>83.5514789678414</v>
       </c>
       <c r="N17" t="n">
+        <v>77.99187771560538</v>
+      </c>
+      <c r="O17" t="n">
+        <v>36.36333798423735</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>122.7111663740566</v>
       </c>
-      <c r="O17" t="n">
-        <v>66.87905913377688</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
       <c r="S17" t="n">
-        <v>93.37239145668461</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>70.49665450712565</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.26828800158311</v>
       </c>
       <c r="L18" t="n">
         <v>119.7571625941458</v>
       </c>
       <c r="M18" t="n">
-        <v>120.707143229763</v>
+        <v>81.43885522817988</v>
       </c>
       <c r="N18" t="n">
         <v>122.7111663740566</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>47.50451412819554</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36139,16 +36139,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>116.3928893977444</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.37239145668461</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>98.22715018692074</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>39.26828800158311</v>
       </c>
       <c r="L21" t="n">
-        <v>119.7571625941458</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>118.5904960282507</v>
+        <v>115.6364922483399</v>
       </c>
       <c r="N21" t="n">
         <v>122.7111663740566</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P21" t="n">
         <v>85.55952557398578</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>80.04776061082526</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>36.34512878691903</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36367,17 +36367,17 @@
         <v>83.5514789678414</v>
       </c>
       <c r="N23" t="n">
-        <v>77.99187771560538</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O23" t="n">
         <v>36.36333798423735</v>
       </c>
       <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>122.7111663740566</v>
       </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
@@ -36385,7 +36385,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>71.67360073929316</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.26828800158311</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>119.7571625941458</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N24" t="n">
-        <v>122.7111663740566</v>
+        <v>120.707143229763</v>
       </c>
       <c r="O24" t="n">
         <v>122.7111663740566</v>
       </c>
       <c r="P24" t="n">
-        <v>81.43885522817988</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0441979461647</v>
+        <v>137.0441979461646</v>
       </c>
       <c r="K26" t="n">
-        <v>207.5501012964441</v>
+        <v>207.550101296444</v>
       </c>
       <c r="L26" t="n">
         <v>261.7964721988196</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4720630341242</v>
+        <v>296.4720630341237</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9124617818866</v>
+        <v>290.9124617818881</v>
       </c>
       <c r="O26" t="n">
-        <v>249.2839220505201</v>
+        <v>249.28392205052</v>
       </c>
       <c r="P26" t="n">
-        <v>199.3623440479436</v>
+        <v>199.3623440479435</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3606161369055</v>
+        <v>124.3606161369054</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70901417889307</v>
+        <v>18.70901417889298</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,25 +36732,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>67.73793381557206</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.2444428540577</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>24.01953102008947</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>13.73613622913519</v>
+        <v>48.21149110781751</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.01922216855523</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>155.0206171058121</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>137.0441979461646</v>
       </c>
       <c r="K29" t="n">
-        <v>207.550101296444</v>
+        <v>207.5501012964439</v>
       </c>
       <c r="L29" t="n">
         <v>261.7964721988195</v>
@@ -36841,7 +36841,7 @@
         <v>296.4720630341241</v>
       </c>
       <c r="N29" t="n">
-        <v>290.9124617818881</v>
+        <v>290.912461781888</v>
       </c>
       <c r="O29" t="n">
         <v>249.28392205052</v>
@@ -36850,10 +36850,10 @@
         <v>199.3623440479435</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3606161369054</v>
+        <v>124.3606161369053</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70901417889294</v>
+        <v>18.70901417889293</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36975,10 +36975,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>16.152163292174</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>44.22459337795878</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>39.36214143350355</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>197.1325457170168</v>
       </c>
       <c r="O31" t="n">
-        <v>176.1179304803873</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0441979461647</v>
+        <v>137.0441979461646</v>
       </c>
       <c r="K32" t="n">
-        <v>207.550101296444</v>
+        <v>207.5501012964439</v>
       </c>
       <c r="L32" t="n">
         <v>261.7964721988196</v>
@@ -37078,19 +37078,19 @@
         <v>296.4720630341241</v>
       </c>
       <c r="N32" t="n">
-        <v>290.9124617818881</v>
+        <v>290.912461781888</v>
       </c>
       <c r="O32" t="n">
-        <v>249.2839220505201</v>
+        <v>249.28392205052</v>
       </c>
       <c r="P32" t="n">
-        <v>199.3623440479422</v>
+        <v>199.3623440479435</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3606161369054</v>
+        <v>124.3606161369053</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70901417889301</v>
+        <v>18.70901417889293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37215,22 +37215,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.22459337795875</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.21149110781754</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>6.803142390027355</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>181.4800536526748</v>
+        <v>181.4800536526747</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>10.79004011988682</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7.71262865117674</v>
       </c>
       <c r="J35" t="n">
-        <v>172.4348246688263</v>
+        <v>53.40219627546241</v>
       </c>
       <c r="K35" t="n">
         <v>242.9407280191056</v>
@@ -37312,7 +37312,7 @@
         <v>48.87588813253689</v>
       </c>
       <c r="M35" t="n">
-        <v>83.5514789678414</v>
+        <v>328.2164562649702</v>
       </c>
       <c r="N35" t="n">
         <v>77.99187771560538</v>
@@ -37321,19 +37321,19 @@
         <v>284.6745487731816</v>
       </c>
       <c r="P35" t="n">
-        <v>182.4546872387067</v>
+        <v>234.7529707706051</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.751242859567</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>21.03725949703611</v>
+        <v>21.03725949703609</v>
       </c>
       <c r="T35" t="n">
-        <v>25.89201822727224</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>84.01651007196278</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>71.05996741434082</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>12.95654265762203</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.71262865117674</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -37546,28 +37546,28 @@
         <v>242.9407280191056</v>
       </c>
       <c r="L38" t="n">
-        <v>48.87588813253689</v>
+        <v>297.1870989214812</v>
       </c>
       <c r="M38" t="n">
-        <v>328.21645626497</v>
+        <v>83.5514789678414</v>
       </c>
       <c r="N38" t="n">
-        <v>77.99187771560538</v>
+        <v>321.9594103866417</v>
       </c>
       <c r="O38" t="n">
-        <v>284.6745487731816</v>
+        <v>36.36333798423735</v>
       </c>
       <c r="P38" t="n">
-        <v>157.1538123347128</v>
+        <v>234.7529707706051</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.751242859567</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.09964090155459</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>21.03725949703609</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>84.01651007196286</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>84.01651007196278</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7221960176496</v>
+        <v>164.7221960176495</v>
       </c>
       <c r="K41" t="n">
-        <v>229.2307234900368</v>
+        <v>44.36333704960827</v>
       </c>
       <c r="L41" t="n">
         <v>48.87588813253689</v>
@@ -37789,25 +37789,25 @@
         <v>324.150061105609</v>
       </c>
       <c r="N41" t="n">
-        <v>318.590459853373</v>
+        <v>77.99187771560538</v>
       </c>
       <c r="O41" t="n">
         <v>276.9619201220049</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>227.0403421194284</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>152.0386142083903</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.38701225037785</v>
       </c>
       <c r="S41" t="n">
-        <v>13.3246308458594</v>
+        <v>13.32463084585934</v>
       </c>
       <c r="T41" t="n">
-        <v>18.17938957609553</v>
+        <v>18.17938957609547</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>95.4159318870569</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37947,13 +37947,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>8.941043799675519</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>104.3569756867326</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>164.7221960176495</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>235.2280993679288</v>
       </c>
       <c r="L44" t="n">
-        <v>79.68098516380557</v>
+        <v>48.87588813253689</v>
       </c>
       <c r="M44" t="n">
         <v>324.150061105609</v>
       </c>
       <c r="N44" t="n">
-        <v>318.590459853373</v>
+        <v>318.5904598533729</v>
       </c>
       <c r="O44" t="n">
-        <v>276.9619201220049</v>
+        <v>36.36333798423735</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>36.17557980110798</v>
       </c>
       <c r="Q44" t="n">
         <v>152.0386142083903</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38701225037788</v>
+        <v>46.38701225037785</v>
       </c>
       <c r="S44" t="n">
-        <v>13.32463084585937</v>
+        <v>13.32463084585934</v>
       </c>
       <c r="T44" t="n">
-        <v>18.1793895760955</v>
+        <v>18.17938957609547</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38151,7 +38151,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>74.14140116579523</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>104.3569756867326</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>30.21557452093728</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
